--- a/results_excel/_ACGwPSG.xlsx
+++ b/results_excel/_ACGwPSG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigmu\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sigmu\Desktop\dataset\doPříloh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365B750A-32B2-4B0D-BBD7-8E62A453682E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771FC289-78B4-43BA-BD34-7798933E48AE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15870" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PSG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="226">
   <si>
     <t>Participant</t>
   </si>
@@ -711,6 +711,9 @@
   </si>
   <si>
     <t>/std diagnosed</t>
+  </si>
+  <si>
+    <t>good if:</t>
   </si>
 </sst>
 </file>
@@ -2353,9 +2356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2391,10 +2392,10 @@
         <v>63</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="65" t="s">
         <v>6</v>
@@ -2439,10 +2440,10 @@
         <v>4</v>
       </c>
       <c r="H2" s="30">
+        <v>2.23</v>
+      </c>
+      <c r="I2" s="30">
         <v>7.55</v>
-      </c>
-      <c r="I2" s="30">
-        <v>2.23</v>
       </c>
       <c r="J2" s="30">
         <v>75.349999999999994</v>
@@ -2492,10 +2493,10 @@
         <v>3</v>
       </c>
       <c r="H3" s="30">
+        <v>2.34</v>
+      </c>
+      <c r="I3" s="30">
         <v>3.33</v>
-      </c>
-      <c r="I3" s="30">
-        <v>2.34</v>
       </c>
       <c r="J3" s="30">
         <v>71.41</v>
@@ -2545,10 +2546,10 @@
         <v>2</v>
       </c>
       <c r="H4" s="30">
+        <v>2.64</v>
+      </c>
+      <c r="I4" s="30">
         <v>5.27</v>
-      </c>
-      <c r="I4" s="30">
-        <v>2.64</v>
       </c>
       <c r="J4" s="30">
         <v>82.05</v>
@@ -2598,10 +2599,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="31">
+        <v>21.82</v>
+      </c>
+      <c r="I5" s="31">
         <v>0.32</v>
-      </c>
-      <c r="I5" s="31">
-        <v>21.82</v>
       </c>
       <c r="J5" s="31">
         <v>23.97</v>
@@ -2648,10 +2649,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="30">
+        <v>3.23</v>
+      </c>
+      <c r="I6" s="30">
         <v>2.89</v>
-      </c>
-      <c r="I6" s="30">
-        <v>3.23</v>
       </c>
       <c r="J6" s="30">
         <v>72.38</v>
@@ -2698,10 +2699,10 @@
         <v>7</v>
       </c>
       <c r="H7" s="30">
+        <v>3.29</v>
+      </c>
+      <c r="I7" s="30">
         <v>1.1399999999999999</v>
-      </c>
-      <c r="I7" s="30">
-        <v>3.29</v>
       </c>
       <c r="J7" s="30">
         <v>51.13</v>
@@ -2748,10 +2749,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="30">
+        <v>3.84</v>
+      </c>
+      <c r="I8" s="30">
         <v>4.5599999999999996</v>
-      </c>
-      <c r="I8" s="30">
-        <v>3.84</v>
       </c>
       <c r="J8" s="30">
         <v>58.3</v>
@@ -2798,10 +2799,10 @@
         <v>3</v>
       </c>
       <c r="H9" s="30">
+        <v>5.27</v>
+      </c>
+      <c r="I9" s="30">
         <v>3.67</v>
-      </c>
-      <c r="I9" s="30">
-        <v>5.27</v>
       </c>
       <c r="J9" s="30">
         <v>66.8</v>
@@ -2848,10 +2849,10 @@
         <v>7</v>
       </c>
       <c r="H10" s="30">
+        <v>6</v>
+      </c>
+      <c r="I10" s="30">
         <v>0.18</v>
-      </c>
-      <c r="I10" s="30">
-        <v>6</v>
       </c>
       <c r="J10" s="30">
         <v>14.95</v>
@@ -2898,10 +2899,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="30">
+        <v>2.62</v>
+      </c>
+      <c r="I11" s="30">
         <v>5.19</v>
-      </c>
-      <c r="I11" s="30">
-        <v>2.62</v>
       </c>
       <c r="J11" s="30">
         <v>80.67</v>
@@ -2948,10 +2949,10 @@
         <v>7</v>
       </c>
       <c r="H12" s="30">
+        <v>3.98</v>
+      </c>
+      <c r="I12" s="30">
         <v>1.74</v>
-      </c>
-      <c r="I12" s="30">
-        <v>3.98</v>
       </c>
       <c r="J12" s="30">
         <v>60.87</v>
@@ -2998,10 +2999,10 @@
         <v>8</v>
       </c>
       <c r="H13" s="30">
+        <v>3.29</v>
+      </c>
+      <c r="I13" s="30">
         <v>4.96</v>
-      </c>
-      <c r="I13" s="30">
-        <v>3.29</v>
       </c>
       <c r="J13" s="30">
         <v>83.23</v>
@@ -3048,10 +3049,10 @@
         <v>12</v>
       </c>
       <c r="H14" s="30">
+        <v>5.38</v>
+      </c>
+      <c r="I14" s="30">
         <v>0.78</v>
-      </c>
-      <c r="I14" s="30">
-        <v>5.38</v>
       </c>
       <c r="J14" s="30">
         <v>43.71</v>
@@ -3098,10 +3099,10 @@
         <v>2</v>
       </c>
       <c r="H15" s="30">
+        <v>2.34</v>
+      </c>
+      <c r="I15" s="30">
         <v>10.36</v>
-      </c>
-      <c r="I15" s="30">
-        <v>2.34</v>
       </c>
       <c r="J15" s="30">
         <v>78.8</v>
@@ -3148,10 +3149,10 @@
         <v>2</v>
       </c>
       <c r="H16" s="30">
+        <v>1.99</v>
+      </c>
+      <c r="I16" s="30">
         <v>11.25</v>
-      </c>
-      <c r="I16" s="30">
-        <v>1.99</v>
       </c>
       <c r="J16" s="30">
         <v>82.83</v>
@@ -3198,10 +3199,10 @@
         <v>4</v>
       </c>
       <c r="H17" s="30">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="I17" s="30">
         <v>7.72</v>
-      </c>
-      <c r="I17" s="30">
-        <v>2.2400000000000002</v>
       </c>
       <c r="J17" s="30">
         <v>87.98</v>
@@ -3248,10 +3249,10 @@
         <v>1</v>
       </c>
       <c r="H18" s="30">
+        <v>5.46</v>
+      </c>
+      <c r="I18" s="30">
         <v>5.98</v>
-      </c>
-      <c r="I18" s="30">
-        <v>5.46</v>
       </c>
       <c r="J18" s="30">
         <v>79.98</v>
@@ -3298,10 +3299,10 @@
         <v>0</v>
       </c>
       <c r="H19" s="30">
+        <v>1.94</v>
+      </c>
+      <c r="I19" s="30">
         <v>21.11</v>
-      </c>
-      <c r="I19" s="30">
-        <v>1.94</v>
       </c>
       <c r="J19" s="30">
         <v>93.37</v>
@@ -3348,10 +3349,10 @@
         <v>6</v>
       </c>
       <c r="H20" s="30">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="I20" s="30">
         <v>0.62</v>
-      </c>
-      <c r="I20" s="30">
-        <v>8.2100000000000009</v>
       </c>
       <c r="J20" s="30">
         <v>31.08</v>
@@ -3398,10 +3399,10 @@
         <v>4</v>
       </c>
       <c r="H21" s="30">
+        <v>3.48</v>
+      </c>
+      <c r="I21" s="30">
         <v>6.27</v>
-      </c>
-      <c r="I21" s="30">
-        <v>3.48</v>
       </c>
       <c r="J21" s="30">
         <v>84.29</v>
@@ -3448,10 +3449,10 @@
         <v>7</v>
       </c>
       <c r="H22" s="30">
+        <v>6.88</v>
+      </c>
+      <c r="I22" s="30">
         <v>2.02</v>
-      </c>
-      <c r="I22" s="30">
-        <v>6.88</v>
       </c>
       <c r="J22" s="30">
         <v>66.62</v>
@@ -3498,10 +3499,10 @@
         <v>5</v>
       </c>
       <c r="H23" s="30">
+        <v>2.83</v>
+      </c>
+      <c r="I23" s="30">
         <v>4.26</v>
-      </c>
-      <c r="I23" s="30">
-        <v>2.83</v>
       </c>
       <c r="J23" s="30">
         <v>75.08</v>
@@ -3548,10 +3549,10 @@
         <v>4</v>
       </c>
       <c r="H24" s="30">
+        <v>3.93</v>
+      </c>
+      <c r="I24" s="30">
         <v>5.38</v>
-      </c>
-      <c r="I24" s="30">
-        <v>3.93</v>
       </c>
       <c r="J24" s="30">
         <v>81.55</v>
@@ -3598,10 +3599,10 @@
         <v>2</v>
       </c>
       <c r="H25" s="30">
+        <v>1.22</v>
+      </c>
+      <c r="I25" s="30">
         <v>14.43</v>
-      </c>
-      <c r="I25" s="30">
-        <v>1.22</v>
       </c>
       <c r="J25" s="30">
         <v>91.85</v>
@@ -3648,10 +3649,10 @@
         <v>1</v>
       </c>
       <c r="H26" s="30">
+        <v>2.83</v>
+      </c>
+      <c r="I26" s="30">
         <v>4.01</v>
-      </c>
-      <c r="I26" s="30">
-        <v>2.83</v>
       </c>
       <c r="J26" s="30">
         <v>78.41</v>
@@ -3698,10 +3699,10 @@
         <v>0</v>
       </c>
       <c r="H27" s="30">
+        <v>1.78</v>
+      </c>
+      <c r="I27" s="30">
         <v>23.57</v>
-      </c>
-      <c r="I27" s="30">
-        <v>1.78</v>
       </c>
       <c r="J27" s="30">
         <v>94.68</v>
@@ -3748,10 +3749,10 @@
         <v>1</v>
       </c>
       <c r="H28" s="30">
+        <v>3.47</v>
+      </c>
+      <c r="I28" s="30">
         <v>10.130000000000001</v>
-      </c>
-      <c r="I28" s="30">
-        <v>3.47</v>
       </c>
       <c r="J28" s="30">
         <v>90.8</v>
@@ -3840,10 +3841,10 @@
         <v>63</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>6</v>
@@ -3902,12 +3903,12 @@
         <v>4.2962962962962967</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(H2:H28)</f>
+        <v>4.2418518518518518</v>
+      </c>
+      <c r="I32" s="13">
+        <f>AVERAGE(I2:I28)</f>
         <v>6.2477777777777765</v>
-      </c>
-      <c r="I32" s="13">
-        <f t="shared" si="1"/>
-        <v>4.2418518518518518</v>
       </c>
       <c r="J32" s="14">
         <f t="shared" si="1"/>
@@ -3964,12 +3965,12 @@
         <v>3.0161886031855305</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="2"/>
+        <f>_xlfn.STDEV.P(H2:H28)</f>
+        <v>3.8151637380881183</v>
+      </c>
+      <c r="I33" s="2">
+        <f>_xlfn.STDEV.P(I2:I28)</f>
         <v>5.7393020180437455</v>
-      </c>
-      <c r="I33" s="2">
-        <f t="shared" si="2"/>
-        <v>3.8151637380881183</v>
       </c>
       <c r="J33" s="2">
         <f t="shared" si="2"/>
@@ -4019,12 +4020,12 @@
         <v>4</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="3"/>
+        <f>MEDIAN(H2:H28)</f>
+        <v>3.29</v>
+      </c>
+      <c r="I34" s="2">
+        <f>MEDIAN(I2:I28)</f>
         <v>4.96</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="3"/>
-        <v>3.29</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
@@ -4069,8 +4070,8 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="80" t="s">
@@ -4100,12 +4101,12 @@
         <v>2</v>
       </c>
       <c r="H37" s="12">
-        <f t="shared" si="4"/>
+        <f>AVERAGE(H3:H4,H9,H26:H28,H21)</f>
+        <v>3.1157142857142857</v>
+      </c>
+      <c r="I37" s="12">
+        <f>AVERAGE(I3:I4,I9,I26:I28,I21)</f>
         <v>8.0357142857142865</v>
-      </c>
-      <c r="I37" s="12">
-        <f t="shared" si="4"/>
-        <v>3.1157142857142857</v>
       </c>
       <c r="J37" s="12">
         <f t="shared" si="4"/>
@@ -4140,12 +4141,12 @@
         <v>1.4142135623730951</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="5"/>
+        <f>STDEVA(H3:H4,H9,H26:H28,H21)</f>
+        <v>1.1249423265640048</v>
+      </c>
+      <c r="I38" s="2">
+        <f>STDEVA(I3:I4,I9,I26:I28,I21)</f>
         <v>7.2327561762278361</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="5"/>
-        <v>1.1249423265640048</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="5"/>
@@ -4177,12 +4178,12 @@
         <v>2</v>
       </c>
       <c r="H39" s="2">
-        <f t="shared" si="6"/>
+        <f>MEDIAN(H3:H4,H9,H26:H28,H21)</f>
+        <v>2.83</v>
+      </c>
+      <c r="I39" s="2">
+        <f>MEDIAN(I3:I4,I9,I26:I28,I21)</f>
         <v>5.27</v>
-      </c>
-      <c r="I39" s="2">
-        <f t="shared" si="6"/>
-        <v>2.83</v>
       </c>
       <c r="J39" s="2">
         <f t="shared" si="6"/>
@@ -4217,12 +4218,12 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="H40" s="12">
-        <f t="shared" si="7"/>
+        <f>AVERAGE(H2,H5:H8,H10:H20,H22:H25)</f>
+        <v>4.6359999999999992</v>
+      </c>
+      <c r="I40" s="12">
+        <f>AVERAGE(I2,I5:I8,I10:I20,I22:I25)</f>
         <v>5.6219999999999999</v>
-      </c>
-      <c r="I40" s="12">
-        <f t="shared" si="7"/>
-        <v>4.6359999999999992</v>
       </c>
       <c r="J40" s="12">
         <f t="shared" si="7"/>
@@ -4257,12 +4258,12 @@
         <v>3.0315012782448236</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="8"/>
+        <f>_xlfn.STDEV.P(H2,H5:H8,H10:H20,H22:H25)</f>
+        <v>4.3209980328623159</v>
+      </c>
+      <c r="I41" s="2">
+        <f>_xlfn.STDEV.P(I2,I5:I8,I10:I20,I22:I25)</f>
         <v>5.2215099348751606</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="8"/>
-        <v>4.3209980328623159</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="8"/>
@@ -4295,12 +4296,12 @@
         <v>4.5</v>
       </c>
       <c r="H42" s="2">
-        <f t="shared" si="9"/>
+        <f>MEDIAN(H2,H5:H8,H10:H20,H22:H25)</f>
+        <v>3.29</v>
+      </c>
+      <c r="I42" s="2">
+        <f>MEDIAN(I2,I5:I8,I10:I20,I22:I25)</f>
         <v>4.76</v>
-      </c>
-      <c r="I42" s="2">
-        <f t="shared" si="9"/>
-        <v>3.29</v>
       </c>
       <c r="J42" s="2">
         <f t="shared" si="9"/>
@@ -4335,12 +4336,12 @@
         <v>7.333333333333333</v>
       </c>
       <c r="H43" s="12">
-        <f t="shared" si="10"/>
+        <f>AVERAGE(H13,H14,H15)</f>
+        <v>3.67</v>
+      </c>
+      <c r="I43" s="12">
+        <f>AVERAGE(I13,I14,I15)</f>
         <v>5.3666666666666671</v>
-      </c>
-      <c r="I43" s="12">
-        <f t="shared" si="10"/>
-        <v>3.67</v>
       </c>
       <c r="J43" s="12">
         <f t="shared" si="10"/>
@@ -4375,12 +4376,12 @@
         <v>5.0332229568471663</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="11"/>
+        <f>STDEVA(H13,H14,H15)</f>
+        <v>1.5552170266557648</v>
+      </c>
+      <c r="I44" s="2">
+        <f>STDEVA(I13,I14,I15)</f>
         <v>4.80292966150175</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="11"/>
-        <v>1.5552170266557648</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="11"/>
@@ -4412,12 +4413,12 @@
         <v>8</v>
       </c>
       <c r="H45" s="2">
-        <f t="shared" si="12"/>
+        <f>MEDIAN(H13,H14,H15)</f>
+        <v>3.29</v>
+      </c>
+      <c r="I45" s="2">
+        <f>MEDIAN(I13,I14,I15)</f>
         <v>4.96</v>
-      </c>
-      <c r="I45" s="2">
-        <f t="shared" si="12"/>
-        <v>3.29</v>
       </c>
       <c r="J45" s="2">
         <f t="shared" si="12"/>
@@ -4703,7 +4704,7 @@
   <dimension ref="A1:AK58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="AH1" sqref="AH1:AH28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4732,10 +4733,10 @@
         <v>196</v>
       </c>
       <c r="H1" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" t="s">
         <v>197</v>
-      </c>
-      <c r="I1" t="s">
-        <v>196</v>
       </c>
       <c r="J1" t="s">
         <v>197</v>
@@ -4759,10 +4760,10 @@
         <v>196</v>
       </c>
       <c r="T1" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" t="s">
         <v>197</v>
-      </c>
-      <c r="U1" t="s">
-        <v>196</v>
       </c>
       <c r="V1" t="s">
         <v>197</v>
@@ -4789,10 +4790,10 @@
         <v>174</v>
       </c>
       <c r="AG1" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AH1" s="3" t="s">
         <v>175</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="AI1" s="3" t="s">
         <v>177</v>
@@ -4827,15 +4828,14 @@
         <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="K2" s="44"/>
       <c r="N2" s="59" t="s">
         <v>211</v>
       </c>
@@ -4855,15 +4855,14 @@
         <v>63</v>
       </c>
       <c r="T2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>169</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="W2" s="44"/>
       <c r="Y2" s="21"/>
       <c r="Z2">
         <v>1</v>
@@ -4890,15 +4889,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG2" s="29">
-        <f t="shared" ref="AG2:AG28" si="5">_xlfn.NORM.S.DIST(H3,FALSE)</f>
+        <f>_xlfn.NORM.S.DIST(H3,FALSE)</f>
+        <v>0.29261655682998838</v>
+      </c>
+      <c r="AH2" s="29">
+        <f>_xlfn.NORM.S.DIST(I3,FALSE)</f>
         <v>0.39804372548484168</v>
       </c>
-      <c r="AH2" s="29">
-        <f t="shared" ref="AH2:AH28" si="6">_xlfn.NORM.S.DIST(I3,FALSE)</f>
-        <v>0.29261655682998838</v>
-      </c>
       <c r="AI2" s="29">
-        <f t="shared" ref="AI2:AI28" si="7">_xlfn.NORM.S.DIST(J3,FALSE)</f>
+        <f t="shared" ref="AI2:AI28" si="5">_xlfn.NORM.S.DIST(J3,FALSE)</f>
         <v>0.33561562533901057</v>
       </c>
       <c r="AJ2">
@@ -4937,19 +4936,18 @@
       </c>
       <c r="H3" s="2">
         <f>STANDARDIZE(PSG!H2,PSG!$H$37,PSG!$H$38)</f>
-        <v>-6.7154798790356227E-2</v>
+        <v>-0.78734195060433787</v>
       </c>
       <c r="I3" s="2">
         <f>STANDARDIZE(PSG!I2,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.78734195060433787</v>
+        <v>-6.7154798790356227E-2</v>
       </c>
       <c r="J3" s="2">
         <f>STANDARDIZE(PSG!J2,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.58796294586520648</v>
       </c>
-      <c r="K3" s="8"/>
       <c r="L3" t="str">
-        <f>IF(OR(OR(E3&lt;-1.6,H3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,I3&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(E3&lt;-1.6,I3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,H3&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M3" t="str">
@@ -4981,19 +4979,18 @@
       </c>
       <c r="T3" s="2">
         <f>STANDARDIZE(PSG!H2,PSG!$H$39,PSG!$H$38)</f>
-        <v>0.31523252608649516</v>
+        <v>-0.53336067621584193</v>
       </c>
       <c r="U3" s="2">
         <f>STANDARDIZE(PSG!I2,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.53336067621584193</v>
+        <v>0.31523252608649516</v>
       </c>
       <c r="V3" s="2">
         <f>STANDARDIZE(PSG!J2,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.67273632986284948</v>
       </c>
-      <c r="W3" s="8"/>
       <c r="X3" t="str">
-        <f>IF(OR(OR(Q3&lt;-1.6,T3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,U3&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(Q3&lt;-1.6,U3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,T3&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y3" t="str">
@@ -5025,15 +5022,15 @@
         <v>0.31069656037692778</v>
       </c>
       <c r="AG3" s="29">
+        <f>_xlfn.NORM.S.DIST(H4,FALSE)</f>
+        <v>0.3145272847162035</v>
+      </c>
+      <c r="AH3" s="29">
+        <f>_xlfn.NORM.S.DIST(I4,FALSE)</f>
+        <v>0.32284395309785974</v>
+      </c>
+      <c r="AI3" s="29">
         <f t="shared" si="5"/>
-        <v>0.32284395309785974</v>
-      </c>
-      <c r="AH3" s="29">
-        <f t="shared" si="6"/>
-        <v>0.3145272847162035</v>
-      </c>
-      <c r="AI3" s="29">
-        <f t="shared" si="7"/>
         <v>0.24594544330837159</v>
       </c>
       <c r="AJ3">
@@ -5069,23 +5066,22 @@
       </c>
       <c r="H4" s="2">
         <f>STANDARDIZE(PSG!H3,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.65061149181009714</v>
+        <v>-0.68955915996476702</v>
       </c>
       <c r="I4" s="2">
         <f>STANDARDIZE(PSG!I3,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.68955915996476702</v>
+        <v>-0.65061149181009714</v>
       </c>
       <c r="J4" s="2">
         <f>STANDARDIZE(PSG!J3,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.98357207118753853</v>
       </c>
-      <c r="K4" s="8"/>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L29" si="8">IF(OR(OR(E4&lt;-1.6,H4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,I4&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(E4&lt;-1.6,I4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,H4&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M29" si="9">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="M4:M29" si="6">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
         <v>FP</v>
       </c>
       <c r="O4" s="2">
@@ -5110,23 +5106,22 @@
       </c>
       <c r="T4" s="2">
         <f>STANDARDIZE(PSG!H3,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.2682241669332458</v>
+        <v>-0.43557788557627103</v>
       </c>
       <c r="U4" s="2">
         <f>STANDARDIZE(PSG!I3,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.43557788557627103</v>
+        <v>-0.2682241669332458</v>
       </c>
       <c r="V4" s="2">
         <f>STANDARDIZE(PSG!J3,PSG!$J$39,PSG!$J$38)</f>
         <v>-1.0683454551851814</v>
       </c>
-      <c r="W4" s="8"/>
       <c r="X4" t="str">
-        <f t="shared" ref="X4:X29" si="10">IF(OR(OR(Q4&lt;-1.6,T4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,U4&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(Q4&lt;-1.6,U4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,T4&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" ref="Y4:Y29" si="11">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="Y4:Y29" si="7">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
         <v>FP</v>
       </c>
       <c r="Z4">
@@ -5154,15 +5149,15 @@
         <v>0.3989422804014327</v>
       </c>
       <c r="AG4" s="29">
+        <f>_xlfn.NORM.S.DIST(H5,FALSE)</f>
+        <v>0.364819786774147</v>
+      </c>
+      <c r="AH4" s="29">
+        <f>_xlfn.NORM.S.DIST(I5,FALSE)</f>
+        <v>0.37081627067998074</v>
+      </c>
+      <c r="AI4" s="29">
         <f t="shared" si="5"/>
-        <v>0.37081627067998074</v>
-      </c>
-      <c r="AH4" s="29">
-        <f t="shared" si="6"/>
-        <v>0.364819786774147</v>
-      </c>
-      <c r="AI4" s="29">
-        <f t="shared" si="7"/>
         <v>0.39751134813741867</v>
       </c>
       <c r="AJ4" s="8">
@@ -5198,23 +5193,22 @@
       </c>
       <c r="H5" s="2">
         <f>STANDARDIZE(PSG!H4,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.3823873248768514</v>
+        <v>-0.42287882185684589</v>
       </c>
       <c r="I5" s="2">
         <f>STANDARDIZE(PSG!I4,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.42287882185684589</v>
+        <v>-0.3823873248768514</v>
       </c>
       <c r="J5" s="2">
         <f>STANDARDIZE(PSG!J4,PSG!$J$37,PSG!$J$38)</f>
         <v>8.4773383997642976E-2</v>
       </c>
-      <c r="K5" s="8"/>
       <c r="L5" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E5&lt;-1.6,I5&lt;-1.6,J5&lt;-1.6),OR(D5&gt;1.6,F5&gt;1.6,G5&gt;1.6,H5&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TN</v>
       </c>
       <c r="O5" s="2">
@@ -5239,23 +5233,22 @@
       </c>
       <c r="T5" s="2">
         <f>STANDARDIZE(PSG!H4,PSG!$H$39,PSG!$H$38)</f>
-        <v>0</v>
+        <v>-0.16889754746834987</v>
       </c>
       <c r="U5" s="2">
         <f>STANDARDIZE(PSG!I4,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.16889754746834987</v>
+        <v>0</v>
       </c>
       <c r="V5" s="2">
         <f>STANDARDIZE(PSG!J4,PSG!$J$39,PSG!$J$38)</f>
         <v>0</v>
       </c>
-      <c r="W5" s="8"/>
       <c r="X5" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q5&lt;-1.6,U5&lt;-1.6,V5&lt;-1.6),OR(P5&gt;1.6,R5&gt;1.6,S5&gt;1.6,T5&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TN</v>
       </c>
       <c r="Z5" s="8">
@@ -5283,15 +5276,15 @@
         <v>6.4039334090010474E-10</v>
       </c>
       <c r="AG5" s="29">
+        <f>_xlfn.NORM.S.DIST(H6,FALSE)</f>
+        <v>3.714017738643122E-61</v>
+      </c>
+      <c r="AH5" s="29">
+        <f>_xlfn.NORM.S.DIST(I6,FALSE)</f>
+        <v>0.22583703386263182</v>
+      </c>
+      <c r="AI5" s="29">
         <f t="shared" si="5"/>
-        <v>0.22583703386263182</v>
-      </c>
-      <c r="AH5" s="29">
-        <f t="shared" si="6"/>
-        <v>3.714017738643122E-61</v>
-      </c>
-      <c r="AI5" s="29">
-        <f t="shared" si="7"/>
         <v>2.685972228468295E-8</v>
       </c>
       <c r="AJ5" s="4">
@@ -5327,23 +5320,22 @@
       </c>
       <c r="H6" s="2">
         <f>STANDARDIZE(PSG!H5,PSG!$H$37,PSG!$H$38)</f>
-        <v>-1.0667737301962157</v>
+        <v>16.626884127842899</v>
       </c>
       <c r="I6" s="2">
         <f>STANDARDIZE(PSG!I5,PSG!$I$37,PSG!$I$38)</f>
-        <v>16.626884127842899</v>
+        <v>-1.0667737301962157</v>
       </c>
       <c r="J6" s="2">
         <f>STANDARDIZE(PSG!J5,PSG!$J$37,PSG!$J$38)</f>
         <v>-5.7469469202462795</v>
       </c>
-      <c r="K6" s="8"/>
       <c r="L6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E6&lt;-1.6,I6&lt;-1.6,J6&lt;-1.6),OR(D6&gt;1.6,F6&gt;1.6,G6&gt;1.6,H6&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O6" s="2">
@@ -5368,23 +5360,22 @@
       </c>
       <c r="T6" s="2">
         <f>STANDARDIZE(PSG!H5,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.68438640531936434</v>
+        <v>16.880865402231397</v>
       </c>
       <c r="U6" s="2">
         <f>STANDARDIZE(PSG!I5,PSG!$I$39,PSG!$I$38)</f>
-        <v>16.880865402231397</v>
+        <v>-0.68438640531936434</v>
       </c>
       <c r="V6" s="2">
         <f>STANDARDIZE(PSG!J5,PSG!$J$39,PSG!$J$38)</f>
         <v>-5.8317203042439223</v>
       </c>
-      <c r="W6" s="8"/>
       <c r="X6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q6&lt;-1.6,U6&lt;-1.6,V6&lt;-1.6),OR(P6&gt;1.6,R6&gt;1.6,S6&gt;1.6,T6&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z6">
@@ -5412,15 +5403,15 @@
         <v>4.2048206999252873E-2</v>
       </c>
       <c r="AG6" s="29">
+        <f>_xlfn.NORM.S.DIST(H7,FALSE)</f>
+        <v>0.39688883415715831</v>
+      </c>
+      <c r="AH6" s="29">
+        <f>_xlfn.NORM.S.DIST(I7,FALSE)</f>
+        <v>0.3097418333596107</v>
+      </c>
+      <c r="AI6" s="29">
         <f t="shared" si="5"/>
-        <v>0.3097418333596107</v>
-      </c>
-      <c r="AH6" s="29">
-        <f t="shared" si="6"/>
-        <v>0.39688883415715831</v>
-      </c>
-      <c r="AI6" s="29">
-        <f t="shared" si="7"/>
         <v>0.26939073408703523</v>
       </c>
       <c r="AJ6" s="4">
@@ -5456,23 +5447,22 @@
       </c>
       <c r="H7" s="2">
         <f>STANDARDIZE(PSG!H6,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.71144583894959612</v>
+        <v>0.10159250975539848</v>
       </c>
       <c r="I7" s="2">
         <f>STANDARDIZE(PSG!I6,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.10159250975539848</v>
+        <v>-0.71144583894959612</v>
       </c>
       <c r="J7" s="2">
         <f>STANDARDIZE(PSG!J6,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.8861759159685888</v>
       </c>
-      <c r="K7" s="8"/>
       <c r="L7" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E7&lt;-1.6,I7&lt;-1.6,J7&lt;-1.6),OR(D7&gt;1.6,F7&gt;1.6,G7&gt;1.6,H7&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O7" s="2">
@@ -5497,23 +5487,22 @@
       </c>
       <c r="T7" s="2">
         <f>STANDARDIZE(PSG!H6,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.32905851407274483</v>
+        <v>0.35557378414389446</v>
       </c>
       <c r="U7" s="2">
         <f>STANDARDIZE(PSG!I6,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.35557378414389446</v>
+        <v>-0.32905851407274483</v>
       </c>
       <c r="V7" s="2">
         <f>STANDARDIZE(PSG!J6,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.9709492999662318</v>
       </c>
-      <c r="W7" s="8"/>
       <c r="X7" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q7&lt;-1.6,U7&lt;-1.6,V7&lt;-1.6),OR(P7&gt;1.6,R7&gt;1.6,S7&gt;1.6,T7&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z7">
@@ -5541,15 +5530,15 @@
         <v>7.7013977531706107E-4</v>
       </c>
       <c r="AG7" s="29">
+        <f>_xlfn.NORM.S.DIST(H8,FALSE)</f>
+        <v>0.39418301784144744</v>
+      </c>
+      <c r="AH7" s="29">
+        <f>_xlfn.NORM.S.DIST(I8,FALSE)</f>
+        <v>0.25323815406191691</v>
+      </c>
+      <c r="AI7" s="29">
         <f t="shared" si="5"/>
-        <v>0.25323815406191691</v>
-      </c>
-      <c r="AH7" s="29">
-        <f t="shared" si="6"/>
-        <v>0.39418301784144744</v>
-      </c>
-      <c r="AI7" s="29">
-        <f t="shared" si="7"/>
         <v>4.1747560329495658E-3</v>
       </c>
       <c r="AJ7" s="4">
@@ -5585,23 +5574,22 @@
       </c>
       <c r="H8" s="2">
         <f>STANDARDIZE(PSG!H7,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.95340062870896747</v>
+        <v>0.15492857737698271</v>
       </c>
       <c r="I8" s="2">
         <f>STANDARDIZE(PSG!I7,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.15492857737698271</v>
+        <v>-0.95340062870896747</v>
       </c>
       <c r="J8" s="2">
         <f>STANDARDIZE(PSG!J7,PSG!$J$37,PSG!$J$38)</f>
         <v>-3.0198545741156844</v>
       </c>
-      <c r="K8" s="8"/>
       <c r="L8" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E8&lt;-1.6,I8&lt;-1.6,J8&lt;-1.6),OR(D8&gt;1.6,F8&gt;1.6,G8&gt;1.6,H8&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O8" s="2">
@@ -5626,23 +5614,22 @@
       </c>
       <c r="T8" s="2">
         <f>STANDARDIZE(PSG!H7,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.57101330383211613</v>
+        <v>0.40890985176547873</v>
       </c>
       <c r="U8" s="2">
         <f>STANDARDIZE(PSG!I7,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.40890985176547873</v>
+        <v>-0.57101330383211613</v>
       </c>
       <c r="V8" s="2">
         <f>STANDARDIZE(PSG!J7,PSG!$J$39,PSG!$J$38)</f>
         <v>-3.1046279581133276</v>
       </c>
-      <c r="W8" s="8"/>
       <c r="X8" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q8&lt;-1.6,U8&lt;-1.6,V8&lt;-1.6),OR(P8&gt;1.6,R8&gt;1.6,S8&gt;1.6,T8&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z8">
@@ -5670,15 +5657,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG8" s="29">
+        <f>_xlfn.NORM.S.DIST(H9,FALSE)</f>
+        <v>0.32426145287192193</v>
+      </c>
+      <c r="AH8" s="29">
+        <f>_xlfn.NORM.S.DIST(I9,FALSE)</f>
+        <v>0.35543831233519207</v>
+      </c>
+      <c r="AI8" s="29">
         <f t="shared" si="5"/>
-        <v>0.35543831233519207</v>
-      </c>
-      <c r="AH8" s="29">
-        <f t="shared" si="6"/>
-        <v>0.32426145287192193</v>
-      </c>
-      <c r="AI8" s="29">
-        <f t="shared" si="7"/>
         <v>2.8331840259909192E-2</v>
       </c>
       <c r="AJ8" s="4">
@@ -5714,23 +5701,22 @@
       </c>
       <c r="H9" s="2">
         <f>STANDARDIZE(PSG!H8,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.48055183957922487</v>
+        <v>0.64384253057483753</v>
       </c>
       <c r="I9" s="2">
         <f>STANDARDIZE(PSG!I8,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.64384253057483753</v>
+        <v>-0.48055183957922487</v>
       </c>
       <c r="J9" s="2">
         <f>STANDARDIZE(PSG!J8,PSG!$J$37,PSG!$J$38)</f>
         <v>-2.2999262927549942</v>
       </c>
-      <c r="K9" s="8"/>
       <c r="L9" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E9&lt;-1.6,I9&lt;-1.6,J9&lt;-1.6),OR(D9&gt;1.6,F9&gt;1.6,G9&gt;1.6,H9&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O9" s="2">
@@ -5755,23 +5741,22 @@
       </c>
       <c r="T9" s="2">
         <f>STANDARDIZE(PSG!H8,PSG!$H$39,PSG!$H$38)</f>
-        <v>-9.8164514702373473E-2</v>
+        <v>0.89782380496333358</v>
       </c>
       <c r="U9" s="2">
         <f>STANDARDIZE(PSG!I8,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.89782380496333358</v>
+        <v>-9.8164514702373473E-2</v>
       </c>
       <c r="V9" s="2">
         <f>STANDARDIZE(PSG!J8,PSG!$J$39,PSG!$J$38)</f>
         <v>-2.3846996767526369</v>
       </c>
-      <c r="W9" s="8"/>
       <c r="X9" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q9&lt;-1.6,U9&lt;-1.6,V9&lt;-1.6),OR(P9&gt;1.6,R9&gt;1.6,S9&gt;1.6,T9&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z9">
@@ -5799,15 +5784,15 @@
         <v>0.31069656037692778</v>
       </c>
       <c r="AG9" s="29">
+        <f>_xlfn.NORM.S.DIST(H10,FALSE)</f>
+        <v>6.376269022477353E-2</v>
+      </c>
+      <c r="AH9" s="29">
+        <f>_xlfn.NORM.S.DIST(I10,FALSE)</f>
+        <v>0.3325028311847078</v>
+      </c>
+      <c r="AI9" s="29">
         <f t="shared" si="5"/>
-        <v>0.3325028311847078</v>
-      </c>
-      <c r="AH9" s="29">
-        <f t="shared" si="6"/>
-        <v>6.376269022477353E-2</v>
-      </c>
-      <c r="AI9" s="29">
-        <f t="shared" si="7"/>
         <v>0.14014827354206663</v>
       </c>
       <c r="AJ9" s="4">
@@ -5843,23 +5828,22 @@
       </c>
       <c r="H10" s="2">
         <f>STANDARDIZE(PSG!H9,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.60360313265684795</v>
+        <v>1.9150188088892603</v>
       </c>
       <c r="I10" s="2">
         <f>STANDARDIZE(PSG!I9,PSG!$I$37,PSG!$I$38)</f>
-        <v>1.9150188088892603</v>
+        <v>-0.60360313265684795</v>
       </c>
       <c r="J10" s="2">
         <f>STANDARDIZE(PSG!J9,PSG!$J$37,PSG!$J$38)</f>
         <v>-1.4464548294961557</v>
       </c>
-      <c r="K10" s="8"/>
       <c r="L10" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E10&lt;-1.6,I10&lt;-1.6,J10&lt;-1.6),OR(D10&gt;1.6,F10&gt;1.6,G10&gt;1.6,H10&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FP</v>
       </c>
       <c r="O10" s="2">
@@ -5884,23 +5868,22 @@
       </c>
       <c r="T10" s="2">
         <f>STANDARDIZE(PSG!H9,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.22121580777999653</v>
+        <v>2.1690000832777563</v>
       </c>
       <c r="U10" s="2">
         <f>STANDARDIZE(PSG!I9,PSG!$I$39,PSG!$I$38)</f>
-        <v>2.1690000832777563</v>
+        <v>-0.22121580777999653</v>
       </c>
       <c r="V10" s="2">
         <f>STANDARDIZE(PSG!J9,PSG!$J$39,PSG!$J$38)</f>
         <v>-1.5312282134937985</v>
       </c>
-      <c r="W10" s="8"/>
       <c r="X10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q10&lt;-1.6,U10&lt;-1.6,V10&lt;-1.6),OR(P10&gt;1.6,R10&gt;1.6,S10&gt;1.6,T10&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FP</v>
       </c>
       <c r="Z10">
@@ -5928,15 +5911,15 @@
         <v>7.7013977531706107E-4</v>
       </c>
       <c r="AG10" s="29">
+        <f>_xlfn.NORM.S.DIST(H11,FALSE)</f>
+        <v>1.4908329892067486E-2</v>
+      </c>
+      <c r="AH10" s="29">
+        <f>_xlfn.NORM.S.DIST(I11,FALSE)</f>
+        <v>0.22118012928817929</v>
+      </c>
+      <c r="AI10" s="29">
         <f t="shared" si="5"/>
-        <v>0.22118012928817929</v>
-      </c>
-      <c r="AH10" s="29">
-        <f t="shared" si="6"/>
-        <v>1.4908329892067486E-2</v>
-      </c>
-      <c r="AI10" s="29">
-        <f t="shared" si="7"/>
         <v>9.7840108373887956E-11</v>
       </c>
       <c r="AJ10" s="4">
@@ -5972,23 +5955,22 @@
       </c>
       <c r="H11" s="2">
         <f>STANDARDIZE(PSG!H10,PSG!$H$37,PSG!$H$38)</f>
-        <v>-1.0861301133769654</v>
+        <v>2.5639409649518683</v>
       </c>
       <c r="I11" s="2">
         <f>STANDARDIZE(PSG!I10,PSG!$I$37,PSG!$I$38)</f>
-        <v>2.5639409649518683</v>
+        <v>-1.0861301133769654</v>
       </c>
       <c r="J11" s="2">
         <f>STANDARDIZE(PSG!J10,PSG!$J$37,PSG!$J$38)</f>
         <v>-6.6526307553750703</v>
       </c>
-      <c r="K11" s="8"/>
       <c r="L11" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E11&lt;-1.6,I11&lt;-1.6,J11&lt;-1.6),OR(D11&gt;1.6,F11&gt;1.6,G11&gt;1.6,H11&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O11" s="2">
@@ -6013,23 +5995,22 @@
       </c>
       <c r="T11" s="2">
         <f>STANDARDIZE(PSG!H10,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.70374278850011407</v>
+        <v>2.8179222393403642</v>
       </c>
       <c r="U11" s="2">
         <f>STANDARDIZE(PSG!I10,PSG!$I$39,PSG!$I$38)</f>
-        <v>2.8179222393403642</v>
+        <v>-0.70374278850011407</v>
       </c>
       <c r="V11" s="2">
         <f>STANDARDIZE(PSG!J10,PSG!$J$39,PSG!$J$38)</f>
         <v>-6.7374041393727131</v>
       </c>
-      <c r="W11" s="8"/>
       <c r="X11" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q11&lt;-1.6,U11&lt;-1.6,V11&lt;-1.6),OR(P11&gt;1.6,R11&gt;1.6,S11&gt;1.6,T11&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z11">
@@ -6057,15 +6038,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG11" s="29">
+        <f>_xlfn.NORM.S.DIST(H12,FALSE)</f>
+        <v>0.36203005192549975</v>
+      </c>
+      <c r="AH11" s="29">
+        <f>_xlfn.NORM.S.DIST(I12,FALSE)</f>
+        <v>0.36922862645787069</v>
+      </c>
+      <c r="AI11" s="29">
         <f t="shared" si="5"/>
-        <v>0.36922862645787069</v>
-      </c>
-      <c r="AH11" s="29">
-        <f t="shared" si="6"/>
-        <v>0.36203005192549975</v>
-      </c>
-      <c r="AI11" s="29">
-        <f t="shared" si="7"/>
         <v>0.39836555035791948</v>
       </c>
       <c r="AJ11">
@@ -6101,23 +6082,22 @@
       </c>
       <c r="H12" s="2">
         <f>STANDARDIZE(PSG!H11,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.39344811526585111</v>
+        <v>-0.44065751106404061</v>
       </c>
       <c r="I12" s="2">
         <f>STANDARDIZE(PSG!I11,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.44065751106404061</v>
+        <v>-0.39344811526585111</v>
       </c>
       <c r="J12" s="2">
         <f>STANDARDIZE(PSG!J11,PSG!$J$37,PSG!$J$38)</f>
         <v>-5.3790218272615056E-2</v>
       </c>
-      <c r="K12" s="8"/>
       <c r="L12" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E12&lt;-1.6,I12&lt;-1.6,J12&lt;-1.6),OR(D12&gt;1.6,F12&gt;1.6,G12&gt;1.6,H12&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O12" s="2">
@@ -6142,23 +6122,22 @@
       </c>
       <c r="T12" s="2">
         <f>STANDARDIZE(PSG!H11,PSG!$H$39,PSG!$H$38)</f>
-        <v>-1.1060790388999715E-2</v>
+        <v>-0.18667623667554462</v>
       </c>
       <c r="U12" s="2">
         <f>STANDARDIZE(PSG!I11,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.18667623667554462</v>
+        <v>-1.1060790388999715E-2</v>
       </c>
       <c r="V12" s="2">
         <f>STANDARDIZE(PSG!J11,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.13856360227025805</v>
       </c>
-      <c r="W12" s="8"/>
       <c r="X12" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q12&lt;-1.6,U12&lt;-1.6,V12&lt;-1.6),OR(P12&gt;1.6,R12&gt;1.6,S12&gt;1.6,T12&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FN</v>
       </c>
       <c r="Z12">
@@ -6186,15 +6165,15 @@
         <v>7.7013977531706107E-4</v>
       </c>
       <c r="AG12" s="29">
+        <f>_xlfn.NORM.S.DIST(H13,FALSE)</f>
+        <v>0.29698433879711955</v>
+      </c>
+      <c r="AH12" s="29">
+        <f>_xlfn.NORM.S.DIST(I13,FALSE)</f>
+        <v>0.27313870885913055</v>
+      </c>
+      <c r="AI12" s="29">
         <f t="shared" si="5"/>
-        <v>0.27313870885913055</v>
-      </c>
-      <c r="AH12" s="29">
-        <f t="shared" si="6"/>
-        <v>0.29698433879711955</v>
-      </c>
-      <c r="AI12" s="29">
-        <f t="shared" si="7"/>
         <v>4.9609708284527411E-2</v>
       </c>
       <c r="AJ12" s="4">
@@ -6230,23 +6209,22 @@
       </c>
       <c r="H13" s="2">
         <f>STANDARDIZE(PSG!H12,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.87044470079146874</v>
+        <v>0.7682933550252008</v>
       </c>
       <c r="I13" s="2">
         <f>STANDARDIZE(PSG!I12,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.7682933550252008</v>
+        <v>-0.87044470079146874</v>
       </c>
       <c r="J13" s="2">
         <f>STANDARDIZE(PSG!J12,PSG!$J$37,PSG!$J$38)</f>
         <v>-2.0418766856284982</v>
       </c>
-      <c r="K13" s="8"/>
       <c r="L13" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E13&lt;-1.6,I13&lt;-1.6,J13&lt;-1.6),OR(D13&gt;1.6,F13&gt;1.6,G13&gt;1.6,H13&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O13" s="2">
@@ -6271,23 +6249,22 @@
       </c>
       <c r="T13" s="2">
         <f>STANDARDIZE(PSG!H12,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.48805737591461734</v>
+        <v>1.0222746294136968</v>
       </c>
       <c r="U13" s="2">
         <f>STANDARDIZE(PSG!I12,PSG!$I$39,PSG!$I$38)</f>
-        <v>1.0222746294136968</v>
+        <v>-0.48805737591461734</v>
       </c>
       <c r="V13" s="2">
         <f>STANDARDIZE(PSG!J12,PSG!$J$39,PSG!$J$38)</f>
         <v>-2.126650069626141</v>
       </c>
-      <c r="W13" s="8"/>
       <c r="X13" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q13&lt;-1.6,U13&lt;-1.6,V13&lt;-1.6),OR(P13&gt;1.6,R13&gt;1.6,S13&gt;1.6,T13&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z13">
@@ -6315,15 +6292,15 @@
         <v>4.9233388666234079E-5</v>
       </c>
       <c r="AG13" s="29">
+        <f>_xlfn.NORM.S.DIST(H14,FALSE)</f>
+        <v>0.39418301784144744</v>
+      </c>
+      <c r="AH13" s="29">
+        <f>_xlfn.NORM.S.DIST(I14,FALSE)</f>
+        <v>0.36445346046209243</v>
+      </c>
+      <c r="AI13" s="29">
         <f t="shared" si="5"/>
-        <v>0.36445346046209243</v>
-      </c>
-      <c r="AH13" s="29">
-        <f t="shared" si="6"/>
-        <v>0.39418301784144744</v>
-      </c>
-      <c r="AI13" s="29">
-        <f t="shared" si="7"/>
         <v>0.39078611361749155</v>
       </c>
       <c r="AJ13" s="4">
@@ -6359,23 +6336,22 @@
       </c>
       <c r="H14" s="2">
         <f>STANDARDIZE(PSG!H13,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.42524788763422566</v>
+        <v>0.15492857737698271</v>
       </c>
       <c r="I14" s="2">
         <f>STANDARDIZE(PSG!I13,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.15492857737698271</v>
+        <v>-0.42524788763422566</v>
       </c>
       <c r="J14" s="2">
         <f>STANDARDIZE(PSG!J13,PSG!$J$37,PSG!$J$38)</f>
         <v>0.20325530477945888</v>
       </c>
-      <c r="K14" s="8"/>
       <c r="L14" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E14&lt;-1.6,I14&lt;-1.6,J14&lt;-1.6),OR(D14&gt;1.6,F14&gt;1.6,G14&gt;1.6,H14&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O14" s="2">
@@ -6400,23 +6376,22 @@
       </c>
       <c r="T14" s="2">
         <f>STANDARDIZE(PSG!H13,PSG!$H$39,PSG!$H$38)</f>
-        <v>-4.2860562757374279E-2</v>
+        <v>0.40890985176547873</v>
       </c>
       <c r="U14" s="2">
         <f>STANDARDIZE(PSG!I13,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.40890985176547873</v>
+        <v>-4.2860562757374279E-2</v>
       </c>
       <c r="V14" s="2">
         <f>STANDARDIZE(PSG!J13,PSG!$J$39,PSG!$J$38)</f>
         <v>0.11848192078181592</v>
       </c>
-      <c r="W14" s="8"/>
       <c r="X14" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q14&lt;-1.6,U14&lt;-1.6,V14&lt;-1.6),OR(P14&gt;1.6,R14&gt;1.6,S14&gt;1.6,T14&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z14">
@@ -6444,15 +6419,15 @@
         <v>5.5404879955758528E-12</v>
       </c>
       <c r="AG14" s="29">
+        <f>_xlfn.NORM.S.DIST(H15,FALSE)</f>
+        <v>5.2621859130719165E-2</v>
+      </c>
+      <c r="AH14" s="29">
+        <f>_xlfn.NORM.S.DIST(I15,FALSE)</f>
+        <v>0.24120266714122465</v>
+      </c>
+      <c r="AI14" s="29">
         <f t="shared" si="5"/>
-        <v>0.24120266714122465</v>
-      </c>
-      <c r="AH14" s="29">
-        <f t="shared" si="6"/>
-        <v>5.2621859130719165E-2</v>
-      </c>
-      <c r="AI14" s="29">
-        <f t="shared" si="7"/>
         <v>3.3341656487438035E-4</v>
       </c>
       <c r="AJ14" s="4">
@@ -6488,23 +6463,22 @@
       </c>
       <c r="H15" s="2">
         <f>STANDARDIZE(PSG!H14,PSG!$H$37,PSG!$H$38)</f>
-        <v>-1.0031741854594667</v>
+        <v>2.0128015995288315</v>
       </c>
       <c r="I15" s="2">
         <f>STANDARDIZE(PSG!I14,PSG!$I$37,PSG!$I$38)</f>
-        <v>2.0128015995288315</v>
+        <v>-1.0031741854594667</v>
       </c>
       <c r="J15" s="2">
         <f>STANDARDIZE(PSG!J14,PSG!$J$37,PSG!$J$38)</f>
         <v>-3.7648849573369296</v>
       </c>
-      <c r="K15" s="8"/>
       <c r="L15" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E15&lt;-1.6,I15&lt;-1.6,J15&lt;-1.6),OR(D15&gt;1.6,F15&gt;1.6,G15&gt;1.6,H15&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O15" s="2">
@@ -6529,23 +6503,22 @@
       </c>
       <c r="T15" s="2">
         <f>STANDARDIZE(PSG!H14,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.62078686058261534</v>
+        <v>2.2667828739173275</v>
       </c>
       <c r="U15" s="2">
         <f>STANDARDIZE(PSG!I14,PSG!$I$39,PSG!$I$38)</f>
-        <v>2.2667828739173275</v>
+        <v>-0.62078686058261534</v>
       </c>
       <c r="V15" s="2">
         <f>STANDARDIZE(PSG!J14,PSG!$J$39,PSG!$J$38)</f>
         <v>-3.8496583413345724</v>
       </c>
-      <c r="W15" s="8"/>
       <c r="X15" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q15&lt;-1.6,U15&lt;-1.6,V15&lt;-1.6),OR(P15&gt;1.6,R15&gt;1.6,S15&gt;1.6,T15&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z15">
@@ -6573,15 +6546,15 @@
         <v>0.3989422804014327</v>
       </c>
       <c r="AG15" s="29">
+        <f>_xlfn.NORM.S.DIST(H16,FALSE)</f>
+        <v>0.3145272847162035</v>
+      </c>
+      <c r="AH15" s="29">
+        <f>_xlfn.NORM.S.DIST(I16,FALSE)</f>
+        <v>0.37886580989184643</v>
+      </c>
+      <c r="AI15" s="29">
         <f t="shared" si="5"/>
-        <v>0.37886580989184643</v>
-      </c>
-      <c r="AH15" s="29">
-        <f t="shared" si="6"/>
-        <v>0.3145272847162035</v>
-      </c>
-      <c r="AI15" s="29">
-        <f t="shared" si="7"/>
         <v>0.38747161432945931</v>
       </c>
       <c r="AJ15">
@@ -6617,23 +6590,22 @@
       </c>
       <c r="H16" s="2">
         <f>STANDARDIZE(PSG!H15,PSG!$H$37,PSG!$H$38)</f>
-        <v>0.32135546362326267</v>
+        <v>-0.68955915996476702</v>
       </c>
       <c r="I16" s="2">
         <f>STANDARDIZE(PSG!I15,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.68955915996476702</v>
+        <v>0.32135546362326267</v>
       </c>
       <c r="J16" s="2">
         <f>STANDARDIZE(PSG!J15,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.24155394018956</v>
       </c>
-      <c r="K16" s="8"/>
       <c r="L16" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E16&lt;-1.6,I16&lt;-1.6,J16&lt;-1.6),OR(D16&gt;1.6,F16&gt;1.6,G16&gt;1.6,H16&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O16" s="2">
@@ -6658,23 +6630,22 @@
       </c>
       <c r="T16" s="2">
         <f>STANDARDIZE(PSG!H15,PSG!$H$39,PSG!$H$38)</f>
-        <v>0.70374278850011407</v>
+        <v>-0.43557788557627103</v>
       </c>
       <c r="U16" s="2">
         <f>STANDARDIZE(PSG!I15,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.43557788557627103</v>
+        <v>0.70374278850011407</v>
       </c>
       <c r="V16" s="2">
         <f>STANDARDIZE(PSG!J15,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.32632732418720295</v>
       </c>
-      <c r="W16" s="8"/>
       <c r="X16" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q16&lt;-1.6,U16&lt;-1.6,V16&lt;-1.6),OR(P16&gt;1.6,R16&gt;1.6,S16&gt;1.6,T16&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z16">
@@ -6702,15 +6673,15 @@
         <v>0.3989422804014327</v>
       </c>
       <c r="AG16" s="29">
+        <f>_xlfn.NORM.S.DIST(H17,FALSE)</f>
+        <v>0.2418046791307116</v>
+      </c>
+      <c r="AH16" s="29">
+        <f>_xlfn.NORM.S.DIST(I17,FALSE)</f>
+        <v>0.36142988356503813</v>
+      </c>
+      <c r="AI16" s="29">
         <f t="shared" si="5"/>
-        <v>0.36142988356503813</v>
-      </c>
-      <c r="AH16" s="29">
-        <f t="shared" si="6"/>
-        <v>0.2418046791307116</v>
-      </c>
-      <c r="AI16" s="29">
-        <f t="shared" si="7"/>
         <v>0.39367167709410072</v>
       </c>
       <c r="AJ16" s="8">
@@ -6746,23 +6717,22 @@
       </c>
       <c r="H17" s="2">
         <f>STANDARDIZE(PSG!H16,PSG!$H$37,PSG!$H$38)</f>
-        <v>0.44440675670088586</v>
+        <v>-1.0006862210906746</v>
       </c>
       <c r="I17" s="2">
         <f>STANDARDIZE(PSG!I16,PSG!$I$37,PSG!$I$38)</f>
-        <v>-1.0006862210906746</v>
+        <v>0.44440675670088586</v>
       </c>
       <c r="J17" s="2">
         <f>STANDARDIZE(PSG!J16,PSG!$J$37,PSG!$J$38)</f>
         <v>0.1630919418025718</v>
       </c>
-      <c r="K17" s="8"/>
       <c r="L17" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E17&lt;-1.6,I17&lt;-1.6,J17&lt;-1.6),OR(D17&gt;1.6,F17&gt;1.6,G17&gt;1.6,H17&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O17" s="2">
@@ -6787,23 +6757,22 @@
       </c>
       <c r="T17" s="2">
         <f>STANDARDIZE(PSG!H16,PSG!$H$39,PSG!$H$38)</f>
-        <v>0.82679408157773726</v>
+        <v>-0.74670494670217868</v>
       </c>
       <c r="U17" s="2">
         <f>STANDARDIZE(PSG!I16,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.74670494670217868</v>
+        <v>0.82679408157773726</v>
       </c>
       <c r="V17" s="2">
         <f>STANDARDIZE(PSG!J16,PSG!$J$39,PSG!$J$38)</f>
         <v>7.8318557804928829E-2</v>
       </c>
-      <c r="W17" s="8"/>
       <c r="X17" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q17&lt;-1.6,U17&lt;-1.6,V17&lt;-1.6),OR(P17&gt;1.6,R17&gt;1.6,S17&gt;1.6,T17&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FN</v>
       </c>
       <c r="Z17">
@@ -6831,15 +6800,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG17" s="29">
+        <f>_xlfn.NORM.S.DIST(H18,FALSE)</f>
+        <v>0.2946601080234319</v>
+      </c>
+      <c r="AH17" s="29">
+        <f>_xlfn.NORM.S.DIST(I18,FALSE)</f>
+        <v>0.39856239375245961</v>
+      </c>
+      <c r="AI17" s="29">
         <f t="shared" si="5"/>
-        <v>0.39856239375245961</v>
-      </c>
-      <c r="AH17" s="29">
-        <f t="shared" si="6"/>
-        <v>0.2946601080234319</v>
-      </c>
-      <c r="AI17" s="29">
-        <f t="shared" si="7"/>
         <v>0.31655087255215292</v>
       </c>
       <c r="AJ17" s="8">
@@ -6875,23 +6844,22 @@
       </c>
       <c r="H18" s="2">
         <f>STANDARDIZE(PSG!H17,PSG!$H$37,PSG!$H$38)</f>
-        <v>-4.3650619213731603E-2</v>
+        <v>-0.7784526060007404</v>
       </c>
       <c r="I18" s="2">
         <f>STANDARDIZE(PSG!I17,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.7784526060007404</v>
+        <v>-4.3650619213731603E-2</v>
       </c>
       <c r="J18" s="2">
         <f>STANDARDIZE(PSG!J17,PSG!$J$37,PSG!$J$38)</f>
         <v>0.68019524012998633</v>
       </c>
-      <c r="K18" s="8"/>
       <c r="L18" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E18&lt;-1.6,I18&lt;-1.6,J18&lt;-1.6),OR(D18&gt;1.6,F18&gt;1.6,G18&gt;1.6,H18&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O18" s="2">
@@ -6916,23 +6884,22 @@
       </c>
       <c r="T18" s="2">
         <f>STANDARDIZE(PSG!H17,PSG!$H$39,PSG!$H$38)</f>
-        <v>0.33873670566311975</v>
+        <v>-0.52447133161224435</v>
       </c>
       <c r="U18" s="2">
         <f>STANDARDIZE(PSG!I17,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.52447133161224435</v>
+        <v>0.33873670566311975</v>
       </c>
       <c r="V18" s="2">
         <f>STANDARDIZE(PSG!J17,PSG!$J$39,PSG!$J$38)</f>
         <v>0.59542185613234333</v>
       </c>
-      <c r="W18" s="8"/>
       <c r="X18" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q18&lt;-1.6,U18&lt;-1.6,V18&lt;-1.6),OR(P18&gt;1.6,R18&gt;1.6,S18&gt;1.6,T18&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FN</v>
       </c>
       <c r="Z18">
@@ -6960,15 +6927,15 @@
         <v>0.31069656037692778</v>
       </c>
       <c r="AG18" s="29">
+        <f>_xlfn.NORM.S.DIST(H19,FALSE)</f>
+        <v>4.5488659613598818E-2</v>
+      </c>
+      <c r="AH18" s="29">
+        <f>_xlfn.NORM.S.DIST(I19,FALSE)</f>
+        <v>0.38314957296014207</v>
+      </c>
+      <c r="AI18" s="29">
         <f t="shared" si="5"/>
-        <v>0.38314957296014207</v>
-      </c>
-      <c r="AH18" s="29">
-        <f t="shared" si="6"/>
-        <v>4.5488659613598818E-2</v>
-      </c>
-      <c r="AI18" s="29">
-        <f t="shared" si="7"/>
         <v>0.39593235850044717</v>
       </c>
       <c r="AJ18" s="4">
@@ -7004,23 +6971,22 @@
       </c>
       <c r="H19" s="2">
         <f>STANDARDIZE(PSG!H18,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.28422281017447781</v>
+        <v>2.0839163563576109</v>
       </c>
       <c r="I19" s="2">
         <f>STANDARDIZE(PSG!I18,PSG!$I$37,PSG!$I$38)</f>
-        <v>2.0839163563576109</v>
+        <v>-0.28422281017447781</v>
       </c>
       <c r="J19" s="2">
         <f>STANDARDIZE(PSG!J18,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.12307201940774408</v>
       </c>
-      <c r="K19" s="8"/>
       <c r="L19" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E19&lt;-1.6,I19&lt;-1.6,J19&lt;-1.6),OR(D19&gt;1.6,F19&gt;1.6,G19&gt;1.6,H19&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O19" s="2">
@@ -7045,23 +7011,22 @@
       </c>
       <c r="T19" s="2">
         <f>STANDARDIZE(PSG!H18,PSG!$H$39,PSG!$H$38)</f>
-        <v>9.8164514702373598E-2</v>
+        <v>2.3378976307461068</v>
       </c>
       <c r="U19" s="2">
         <f>STANDARDIZE(PSG!I18,PSG!$I$39,PSG!$I$38)</f>
-        <v>2.3378976307461068</v>
+        <v>9.8164514702373598E-2</v>
       </c>
       <c r="V19" s="2">
         <f>STANDARDIZE(PSG!J18,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.20784540340538704</v>
       </c>
-      <c r="W19" s="8"/>
       <c r="X19" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q19&lt;-1.6,U19&lt;-1.6,V19&lt;-1.6),OR(P19&gt;1.6,R19&gt;1.6,S19&gt;1.6,T19&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z19">
@@ -7089,15 +7054,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG19" s="29">
+        <f>_xlfn.NORM.S.DIST(H20,FALSE)</f>
+        <v>0.23105720264097665</v>
+      </c>
+      <c r="AH19" s="29">
+        <f>_xlfn.NORM.S.DIST(I20,FALSE)</f>
+        <v>7.7868303340989278E-2</v>
+      </c>
+      <c r="AI19" s="29">
         <f t="shared" si="5"/>
-        <v>7.7868303340989278E-2</v>
-      </c>
-      <c r="AH19" s="29">
-        <f t="shared" si="6"/>
-        <v>0.23105720264097665</v>
-      </c>
-      <c r="AI19" s="29">
-        <f t="shared" si="7"/>
         <v>0.18922030515522392</v>
       </c>
       <c r="AJ19">
@@ -7133,23 +7098,22 @@
       </c>
       <c r="H20" s="2">
         <f>STANDARDIZE(PSG!H19,PSG!$H$37,PSG!$H$38)</f>
-        <v>1.8076491721451147</v>
+        <v>-1.0451329441086614</v>
       </c>
       <c r="I20" s="2">
         <f>STANDARDIZE(PSG!I19,PSG!$I$37,PSG!$I$38)</f>
-        <v>-1.0451329441086614</v>
+        <v>1.8076491721451147</v>
       </c>
       <c r="J20" s="2">
         <f>STANDARDIZE(PSG!J19,PSG!$J$37,PSG!$J$38)</f>
         <v>1.2213965562435323</v>
       </c>
-      <c r="K20" s="8"/>
       <c r="L20" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E20&lt;-1.6,I20&lt;-1.6,J20&lt;-1.6),OR(D20&gt;1.6,F20&gt;1.6,G20&gt;1.6,H20&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O20" s="2">
@@ -7174,23 +7138,22 @@
       </c>
       <c r="T20" s="2">
         <f>STANDARDIZE(PSG!H19,PSG!$H$39,PSG!$H$38)</f>
-        <v>2.1900364970219659</v>
+        <v>-0.79115166972016548</v>
       </c>
       <c r="U20" s="2">
         <f>STANDARDIZE(PSG!I19,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.79115166972016548</v>
+        <v>2.1900364970219659</v>
       </c>
       <c r="V20" s="2">
         <f>STANDARDIZE(PSG!J19,PSG!$J$39,PSG!$J$38)</f>
         <v>1.1366231722458893</v>
       </c>
-      <c r="W20" s="8"/>
       <c r="X20" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q20&lt;-1.6,U20&lt;-1.6,V20&lt;-1.6),OR(P20&gt;1.6,R20&gt;1.6,S20&gt;1.6,T20&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FN</v>
       </c>
       <c r="Z20">
@@ -7218,15 +7181,15 @@
         <v>7.3068827452807831E-3</v>
       </c>
       <c r="AG20" s="29">
+        <f>_xlfn.NORM.S.DIST(H21,FALSE)</f>
+        <v>1.4055007593313297E-5</v>
+      </c>
+      <c r="AH20" s="29">
+        <f>_xlfn.NORM.S.DIST(I21,FALSE)</f>
+        <v>0.23585118678012851</v>
+      </c>
+      <c r="AI20" s="29">
         <f t="shared" si="5"/>
-        <v>0.23585118678012851</v>
-      </c>
-      <c r="AH20" s="29">
-        <f t="shared" si="6"/>
-        <v>1.4055007593313297E-5</v>
-      </c>
-      <c r="AI20" s="29">
-        <f t="shared" si="7"/>
         <v>1.2596203719194325E-6</v>
       </c>
       <c r="AJ20" s="4">
@@ -7262,23 +7225,22 @@
       </c>
       <c r="H21" s="2">
         <f>STANDARDIZE(PSG!H20,PSG!$H$37,PSG!$H$38)</f>
-        <v>-1.0252957662374664</v>
+        <v>4.5284861223468864</v>
       </c>
       <c r="I21" s="2">
         <f>STANDARDIZE(PSG!I20,PSG!$I$37,PSG!$I$38)</f>
-        <v>4.5284861223468864</v>
+        <v>-1.0252957662374664</v>
       </c>
       <c r="J21" s="2">
         <f>STANDARDIZE(PSG!J20,PSG!$J$37,PSG!$J$38)</f>
         <v>-5.0330431433321214</v>
       </c>
-      <c r="K21" s="8"/>
       <c r="L21" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E21&lt;-1.6,I21&lt;-1.6,J21&lt;-1.6),OR(D21&gt;1.6,F21&gt;1.6,G21&gt;1.6,H21&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O21" s="2">
@@ -7303,23 +7265,22 @@
       </c>
       <c r="T21" s="2">
         <f>STANDARDIZE(PSG!H20,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.64290844136061498</v>
+        <v>4.7824673967353828</v>
       </c>
       <c r="U21" s="2">
         <f>STANDARDIZE(PSG!I20,PSG!$I$39,PSG!$I$38)</f>
-        <v>4.7824673967353828</v>
+        <v>-0.64290844136061498</v>
       </c>
       <c r="V21" s="2">
         <f>STANDARDIZE(PSG!J20,PSG!$J$39,PSG!$J$38)</f>
         <v>-5.1178165273297642</v>
       </c>
-      <c r="W21" s="8"/>
       <c r="X21" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q21&lt;-1.6,U21&lt;-1.6,V21&lt;-1.6),OR(P21&gt;1.6,R21&gt;1.6,S21&gt;1.6,T21&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z21">
@@ -7347,15 +7308,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG21" s="29">
+        <f>_xlfn.NORM.S.DIST(H22,FALSE)</f>
+        <v>0.37856396938188625</v>
+      </c>
+      <c r="AH21" s="29">
+        <f>_xlfn.NORM.S.DIST(I22,FALSE)</f>
+        <v>0.38722953893827283</v>
+      </c>
+      <c r="AI21" s="29">
         <f t="shared" si="5"/>
-        <v>0.38722953893827283</v>
-      </c>
-      <c r="AH21" s="29">
-        <f t="shared" si="6"/>
-        <v>0.37856396938188625</v>
-      </c>
-      <c r="AI21" s="29">
-        <f t="shared" si="7"/>
         <v>0.38026308799922032</v>
       </c>
       <c r="AJ21">
@@ -7391,23 +7352,22 @@
       </c>
       <c r="H22" s="2">
         <f>STANDARDIZE(PSG!H21,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.24412744501435352</v>
+        <v>0.32382612484533257</v>
       </c>
       <c r="I22" s="2">
         <f>STANDARDIZE(PSG!I21,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.32382612484533257</v>
+        <v>-0.24412744501435352</v>
       </c>
       <c r="J22" s="2">
         <f>STANDARDIZE(PSG!J21,PSG!$J$37,PSG!$J$38)</f>
         <v>0.30968821666820839</v>
       </c>
-      <c r="K22" s="8"/>
       <c r="L22" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E22&lt;-1.6,I22&lt;-1.6,J22&lt;-1.6),OR(D22&gt;1.6,F22&gt;1.6,G22&gt;1.6,H22&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TN</v>
       </c>
       <c r="O22" s="2">
@@ -7432,23 +7392,22 @@
       </c>
       <c r="T22" s="2">
         <f>STANDARDIZE(PSG!H21,PSG!$H$39,PSG!$H$38)</f>
-        <v>0.13825987986249785</v>
+        <v>0.57780739923382862</v>
       </c>
       <c r="U22" s="2">
         <f>STANDARDIZE(PSG!I21,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.57780739923382862</v>
+        <v>0.13825987986249785</v>
       </c>
       <c r="V22" s="2">
         <f>STANDARDIZE(PSG!J21,PSG!$J$39,PSG!$J$38)</f>
         <v>0.22491483267056542</v>
       </c>
-      <c r="W22" s="8"/>
       <c r="X22" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q22&lt;-1.6,U22&lt;-1.6,V22&lt;-1.6),OR(P22&gt;1.6,R22&gt;1.6,S22&gt;1.6,T22&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TN</v>
       </c>
       <c r="Z22">
@@ -7476,15 +7435,15 @@
         <v>7.7013977531706107E-4</v>
       </c>
       <c r="AG22" s="29">
+        <f>_xlfn.NORM.S.DIST(H23,FALSE)</f>
+        <v>1.4773922147615619E-3</v>
+      </c>
+      <c r="AH22" s="29">
+        <f>_xlfn.NORM.S.DIST(I23,FALSE)</f>
+        <v>0.28228797572787528</v>
+      </c>
+      <c r="AI22" s="29">
         <f t="shared" si="5"/>
-        <v>0.28228797572787528</v>
-      </c>
-      <c r="AH22" s="29">
-        <f t="shared" si="6"/>
-        <v>1.4773922147615619E-3</v>
-      </c>
-      <c r="AI22" s="29">
-        <f t="shared" si="7"/>
         <v>0.13650962327086391</v>
       </c>
       <c r="AJ22" s="4">
@@ -7520,23 +7479,22 @@
       </c>
       <c r="H23" s="2">
         <f>STANDARDIZE(PSG!H22,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.8317319344299694</v>
+        <v>3.3462032900684364</v>
       </c>
       <c r="I23" s="2">
         <f>STANDARDIZE(PSG!I22,PSG!$I$37,PSG!$I$38)</f>
-        <v>3.3462032900684364</v>
+        <v>-0.8317319344299694</v>
       </c>
       <c r="J23" s="2">
         <f>STANDARDIZE(PSG!J22,PSG!$J$37,PSG!$J$38)</f>
         <v>-1.4645283428357538</v>
       </c>
-      <c r="K23" s="8"/>
       <c r="L23" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E23&lt;-1.6,I23&lt;-1.6,J23&lt;-1.6),OR(D23&gt;1.6,F23&gt;1.6,G23&gt;1.6,H23&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O23" s="2">
@@ -7561,23 +7519,22 @@
       </c>
       <c r="T23" s="2">
         <f>STANDARDIZE(PSG!H22,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.449344609553118</v>
+        <v>3.6001845644569324</v>
       </c>
       <c r="U23" s="2">
         <f>STANDARDIZE(PSG!I22,PSG!$I$39,PSG!$I$38)</f>
-        <v>3.6001845644569324</v>
+        <v>-0.449344609553118</v>
       </c>
       <c r="V23" s="2">
         <f>STANDARDIZE(PSG!J22,PSG!$J$39,PSG!$J$38)</f>
         <v>-1.5493017268333968</v>
       </c>
-      <c r="W23" s="8"/>
       <c r="X23" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q23&lt;-1.6,U23&lt;-1.6,V23&lt;-1.6),OR(P23&gt;1.6,R23&gt;1.6,S23&gt;1.6,T23&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z23">
@@ -7605,15 +7562,15 @@
         <v>4.2048206999252873E-2</v>
       </c>
       <c r="AG23" s="29">
+        <f>_xlfn.NORM.S.DIST(H24,FALSE)</f>
+        <v>0.38628038891027777</v>
+      </c>
+      <c r="AH23" s="29">
+        <f>_xlfn.NORM.S.DIST(I24,FALSE)</f>
+        <v>0.34812415656550116</v>
+      </c>
+      <c r="AI23" s="29">
         <f t="shared" si="5"/>
-        <v>0.34812415656550116</v>
-      </c>
-      <c r="AH23" s="29">
-        <f t="shared" si="6"/>
-        <v>0.38628038891027777</v>
-      </c>
-      <c r="AI23" s="29">
-        <f t="shared" si="7"/>
         <v>0.33018701806190126</v>
       </c>
       <c r="AJ23" s="4">
@@ -7649,23 +7606,22 @@
       </c>
       <c r="H24" s="2">
         <f>STANDARDIZE(PSG!H23,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.52202980353797424</v>
+        <v>-0.25398127438849599</v>
       </c>
       <c r="I24" s="2">
         <f>STANDARDIZE(PSG!I23,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.25398127438849599</v>
+        <v>-0.52202980353797424</v>
       </c>
       <c r="J24" s="2">
         <f>STANDARDIZE(PSG!J23,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.61507321587460451</v>
       </c>
-      <c r="K24" s="8"/>
       <c r="L24" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E24&lt;-1.6,I24&lt;-1.6,J24&lt;-1.6),OR(D24&gt;1.6,F24&gt;1.6,G24&gt;1.6,H24&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="M24" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TP</v>
       </c>
       <c r="O24" s="2">
@@ -7690,23 +7646,22 @@
       </c>
       <c r="T24" s="2">
         <f>STANDARDIZE(PSG!H23,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.13964247866112281</v>
+        <v>0</v>
       </c>
       <c r="U24" s="2">
         <f>STANDARDIZE(PSG!I23,PSG!$I$39,PSG!$I$38)</f>
-        <v>0</v>
+        <v>-0.13964247866112281</v>
       </c>
       <c r="V24" s="2">
         <f>STANDARDIZE(PSG!J23,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.69984659987224751</v>
       </c>
-      <c r="W24" s="8"/>
       <c r="X24" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q24&lt;-1.6,U24&lt;-1.6,V24&lt;-1.6),OR(P24&gt;1.6,R24&gt;1.6,S24&gt;1.6,T24&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TP</v>
       </c>
       <c r="Z24">
@@ -7734,15 +7689,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG24" s="29">
+        <f>_xlfn.NORM.S.DIST(H25,FALSE)</f>
+        <v>0.30699755164060832</v>
+      </c>
+      <c r="AH24" s="29">
+        <f>_xlfn.NORM.S.DIST(I25,FALSE)</f>
+        <v>0.37293592905695588</v>
+      </c>
+      <c r="AI24" s="29">
         <f t="shared" si="5"/>
-        <v>0.37293592905695588</v>
-      </c>
-      <c r="AH24" s="29">
-        <f t="shared" si="6"/>
-        <v>0.30699755164060832</v>
-      </c>
-      <c r="AI24" s="29">
-        <f t="shared" si="7"/>
         <v>0.39870397796044732</v>
       </c>
       <c r="AJ24" s="8">
@@ -7778,23 +7733,22 @@
       </c>
       <c r="H25" s="2">
         <f>STANDARDIZE(PSG!H24,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.3671787380919766</v>
+        <v>0.72384663200721411</v>
       </c>
       <c r="I25" s="2">
         <f>STANDARDIZE(PSG!I24,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.72384663200721411</v>
+        <v>-0.3671787380919766</v>
       </c>
       <c r="J25" s="2">
         <f>STANDARDIZE(PSG!J24,PSG!$J$37,PSG!$J$38)</f>
         <v>3.4569180276534828E-2</v>
       </c>
-      <c r="K25" s="8"/>
       <c r="L25" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E25&lt;-1.6,I25&lt;-1.6,J25&lt;-1.6),OR(D25&gt;1.6,F25&gt;1.6,G25&gt;1.6,H25&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M25" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O25" s="2">
@@ -7819,23 +7773,22 @@
       </c>
       <c r="T25" s="2">
         <f>STANDARDIZE(PSG!H24,PSG!$H$39,PSG!$H$38)</f>
-        <v>1.5208586784874809E-2</v>
+        <v>0.97782790639571016</v>
       </c>
       <c r="U25" s="2">
         <f>STANDARDIZE(PSG!I24,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.97782790639571016</v>
+        <v>1.5208586784874809E-2</v>
       </c>
       <c r="V25" s="2">
         <f>STANDARDIZE(PSG!J24,PSG!$J$39,PSG!$J$38)</f>
         <v>-5.0204203721108148E-2</v>
       </c>
-      <c r="W25" s="8"/>
       <c r="X25" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q25&lt;-1.6,U25&lt;-1.6,V25&lt;-1.6),OR(P25&gt;1.6,R25&gt;1.6,S25&gt;1.6,T25&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FN</v>
       </c>
       <c r="Z25">
@@ -7863,15 +7816,15 @@
         <v>0.3989422804014327</v>
       </c>
       <c r="AG25" s="29">
+        <f>_xlfn.NORM.S.DIST(H26,FALSE)</f>
+        <v>9.644037424535741E-2</v>
+      </c>
+      <c r="AH25" s="29">
+        <f>_xlfn.NORM.S.DIST(I26,FALSE)</f>
+        <v>0.26989258774998537</v>
+      </c>
+      <c r="AI25" s="29">
         <f t="shared" si="5"/>
-        <v>0.26989258774998537</v>
-      </c>
-      <c r="AH25" s="29">
-        <f t="shared" si="6"/>
-        <v>9.644037424535741E-2</v>
-      </c>
-      <c r="AI25" s="29">
-        <f t="shared" si="7"/>
         <v>0.22535476980028304</v>
       </c>
       <c r="AJ25" s="8">
@@ -7907,23 +7860,22 @@
       </c>
       <c r="H26" s="2">
         <f>STANDARDIZE(PSG!H25,PSG!$H$37,PSG!$H$38)</f>
-        <v>0.884073174663629</v>
+        <v>-1.6851657555676718</v>
       </c>
       <c r="I26" s="2">
         <f>STANDARDIZE(PSG!I25,PSG!$I$37,PSG!$I$38)</f>
-        <v>-1.6851657555676718</v>
+        <v>0.884073174663629</v>
       </c>
       <c r="J26" s="2">
         <f>STANDARDIZE(PSG!J25,PSG!$J$37,PSG!$J$38)</f>
         <v>1.0687757769313624</v>
       </c>
-      <c r="K26" s="8"/>
       <c r="L26" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E26&lt;-1.6,I26&lt;-1.6,J26&lt;-1.6),OR(D26&gt;1.6,F26&gt;1.6,G26&gt;1.6,H26&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M26" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>FN</v>
       </c>
       <c r="O26" s="2">
@@ -7948,23 +7900,22 @@
       </c>
       <c r="T26" s="2">
         <f>STANDARDIZE(PSG!H25,PSG!$H$39,PSG!$H$38)</f>
-        <v>1.2664604995404805</v>
+        <v>-1.4311844811791756</v>
       </c>
       <c r="U26" s="2">
         <f>STANDARDIZE(PSG!I25,PSG!$I$39,PSG!$I$38)</f>
-        <v>-1.4311844811791756</v>
+        <v>1.2664604995404805</v>
       </c>
       <c r="V26" s="2">
         <f>STANDARDIZE(PSG!J25,PSG!$J$39,PSG!$J$38)</f>
         <v>0.98400239293371938</v>
       </c>
-      <c r="W26" s="8"/>
       <c r="X26" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q26&lt;-1.6,U26&lt;-1.6,V26&lt;-1.6),OR(P26&gt;1.6,R26&gt;1.6,S26&gt;1.6,T26&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>FN</v>
       </c>
       <c r="Z26">
@@ -7992,15 +7943,15 @@
         <v>0.31069656037692778</v>
       </c>
       <c r="AG26" s="29">
+        <f>_xlfn.NORM.S.DIST(H27,FALSE)</f>
+        <v>0.38628038891027777</v>
+      </c>
+      <c r="AH26" s="29">
+        <f>_xlfn.NORM.S.DIST(I27,FALSE)</f>
+        <v>0.34169477739817516</v>
+      </c>
+      <c r="AI26" s="29">
         <f t="shared" si="5"/>
-        <v>0.34169477739817516</v>
-      </c>
-      <c r="AH26" s="29">
-        <f t="shared" si="6"/>
-        <v>0.38628038891027777</v>
-      </c>
-      <c r="AI26" s="29">
-        <f t="shared" si="7"/>
         <v>0.38352959556219929</v>
       </c>
       <c r="AJ26">
@@ -8036,23 +7987,22 @@
       </c>
       <c r="H27" s="2">
         <f>STANDARDIZE(PSG!H26,PSG!$H$37,PSG!$H$38)</f>
-        <v>-0.55659477350359865</v>
+        <v>-0.25398127438849599</v>
       </c>
       <c r="I27" s="2">
         <f>STANDARDIZE(PSG!I26,PSG!$I$37,PSG!$I$38)</f>
-        <v>-0.25398127438849599</v>
+        <v>-0.55659477350359865</v>
       </c>
       <c r="J27" s="2">
         <f>STANDARDIZE(PSG!J26,PSG!$J$37,PSG!$J$38)</f>
         <v>-0.2807132190920244</v>
       </c>
-      <c r="K27" s="8"/>
       <c r="L27" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E27&lt;-1.6,I27&lt;-1.6,J27&lt;-1.6),OR(D27&gt;1.6,F27&gt;1.6,G27&gt;1.6,H27&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M27" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TN</v>
       </c>
       <c r="O27" s="2">
@@ -8077,23 +8027,22 @@
       </c>
       <c r="T27" s="2">
         <f>STANDARDIZE(PSG!H26,PSG!$H$39,PSG!$H$38)</f>
-        <v>-0.17420744862674728</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <f>STANDARDIZE(PSG!I26,PSG!$I$39,PSG!$I$38)</f>
-        <v>0</v>
+        <v>-0.17420744862674728</v>
       </c>
       <c r="V27" s="2">
         <f>STANDARDIZE(PSG!J26,PSG!$J$39,PSG!$J$38)</f>
         <v>-0.36548660308966741</v>
       </c>
-      <c r="W27" s="8"/>
       <c r="X27" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q27&lt;-1.6,U27&lt;-1.6,V27&lt;-1.6),OR(P27&gt;1.6,R27&gt;1.6,S27&gt;1.6,T27&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TN</v>
       </c>
       <c r="Z27">
@@ -8121,15 +8070,15 @@
         <v>0.14676266317373993</v>
       </c>
       <c r="AG27" s="29">
+        <f>_xlfn.NORM.S.DIST(H28,FALSE)</f>
+        <v>0.19713759618488233</v>
+      </c>
+      <c r="AH27" s="29">
+        <f>_xlfn.NORM.S.DIST(I28,FALSE)</f>
+        <v>3.9740150777848593E-2</v>
+      </c>
+      <c r="AI27" s="29">
         <f t="shared" si="5"/>
-        <v>3.9740150777848593E-2</v>
-      </c>
-      <c r="AH27" s="29">
-        <f t="shared" si="6"/>
-        <v>0.19713759618488233</v>
-      </c>
-      <c r="AI27" s="29">
-        <f t="shared" si="7"/>
         <v>0.15974915907472767</v>
       </c>
       <c r="AJ27" s="8">
@@ -8165,23 +8114,22 @@
       </c>
       <c r="H28" s="2">
         <f>STANDARDIZE(PSG!H27,PSG!$H$37,PSG!$H$38)</f>
-        <v>2.1477684766068594</v>
+        <v>-1.1873624577662192</v>
       </c>
       <c r="I28" s="2">
         <f>STANDARDIZE(PSG!I27,PSG!$I$37,PSG!$I$38)</f>
-        <v>-1.1873624577662192</v>
+        <v>2.1477684766068594</v>
       </c>
       <c r="J28" s="2">
         <f>STANDARDIZE(PSG!J27,PSG!$J$37,PSG!$J$38)</f>
         <v>1.3529315699928357</v>
       </c>
-      <c r="K28" s="8"/>
       <c r="L28" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E28&lt;-1.6,I28&lt;-1.6,J28&lt;-1.6),OR(D28&gt;1.6,F28&gt;1.6,G28&gt;1.6,H28&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M28" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TN</v>
       </c>
       <c r="O28" s="2">
@@ -8206,23 +8154,22 @@
       </c>
       <c r="T28" s="2">
         <f>STANDARDIZE(PSG!H27,PSG!$H$39,PSG!$H$38)</f>
-        <v>2.5301558014837111</v>
+        <v>-0.93338118337772324</v>
       </c>
       <c r="U28" s="2">
         <f>STANDARDIZE(PSG!I27,PSG!$I$39,PSG!$I$38)</f>
-        <v>-0.93338118337772324</v>
+        <v>2.5301558014837111</v>
       </c>
       <c r="V28" s="2">
         <f>STANDARDIZE(PSG!J27,PSG!$J$39,PSG!$J$38)</f>
         <v>1.2681581859951929</v>
       </c>
-      <c r="W28" s="8"/>
       <c r="X28" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q28&lt;-1.6,U28&lt;-1.6,V28&lt;-1.6),OR(P28&gt;1.6,R28&gt;1.6,S28&gt;1.6,T28&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TN</v>
       </c>
       <c r="Z28">
@@ -8250,15 +8197,15 @@
         <v>0.31069656037692778</v>
       </c>
       <c r="AG28" s="29">
+        <f>_xlfn.NORM.S.DIST(H29,FALSE)</f>
+        <v>0.37964027438136233</v>
+      </c>
+      <c r="AH28" s="29">
+        <f>_xlfn.NORM.S.DIST(I29,FALSE)</f>
+        <v>0.38256382290231344</v>
+      </c>
+      <c r="AI28" s="29">
         <f t="shared" si="5"/>
-        <v>0.38256382290231344</v>
-      </c>
-      <c r="AH28" s="29">
-        <f t="shared" si="6"/>
-        <v>0.37964027438136233</v>
-      </c>
-      <c r="AI28" s="29">
-        <f t="shared" si="7"/>
         <v>0.25083568255802924</v>
       </c>
       <c r="AJ28" s="8">
@@ -8294,23 +8241,22 @@
       </c>
       <c r="H29" s="2">
         <f>STANDARDIZE(PSG!H28,PSG!$H$37,PSG!$H$38)</f>
-        <v>0.28955569125488839</v>
+        <v>0.31493678024173538</v>
       </c>
       <c r="I29" s="2">
         <f>STANDARDIZE(PSG!I28,PSG!$I$37,PSG!$I$38)</f>
-        <v>0.31493678024173538</v>
+        <v>0.28955569125488839</v>
       </c>
       <c r="J29" s="2">
         <f>STANDARDIZE(PSG!J28,PSG!$J$37,PSG!$J$38)</f>
         <v>0.96334694911703556</v>
       </c>
-      <c r="K29" s="8"/>
       <c r="L29" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(OR(OR(E29&lt;-1.6,I29&lt;-1.6,J29&lt;-1.6),OR(D29&gt;1.6,F29&gt;1.6,G29&gt;1.6,H29&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M29" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>TN</v>
       </c>
       <c r="O29" s="2">
@@ -8335,23 +8281,22 @@
       </c>
       <c r="T29" s="2">
         <f>STANDARDIZE(PSG!H28,PSG!$H$39,PSG!$H$38)</f>
-        <v>0.67194301613173979</v>
+        <v>0.56891805463023137</v>
       </c>
       <c r="U29" s="2">
         <f>STANDARDIZE(PSG!I28,PSG!$I$39,PSG!$I$38)</f>
-        <v>0.56891805463023137</v>
+        <v>0.67194301613173979</v>
       </c>
       <c r="V29" s="2">
         <f>STANDARDIZE(PSG!J28,PSG!$J$39,PSG!$J$38)</f>
         <v>0.87857356511939266</v>
       </c>
-      <c r="W29" s="8"/>
       <c r="X29" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(OR(OR(Q29&lt;-1.6,U29&lt;-1.6,V29&lt;-1.6),OR(P29&gt;1.6,R29&gt;1.6,S29&gt;1.6,T29&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>TN</v>
       </c>
       <c r="AA29" s="27" t="s">
@@ -8422,7 +8367,7 @@
         <v>200</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P34" si="12">COUNTIF($Y$3:$Y$29,O32)</f>
+        <f t="shared" ref="P32:P34" si="8">COUNTIF($Y$3:$Y$29,O32)</f>
         <v>6</v>
       </c>
       <c r="R32" s="46" t="s">
@@ -8460,7 +8405,7 @@
         <v>201</v>
       </c>
       <c r="P33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="R33" s="46" t="s">
@@ -8498,7 +8443,7 @@
         <v>198</v>
       </c>
       <c r="P34">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="R34" s="47" t="s">
@@ -8768,22 +8713,22 @@
       <formula>46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D29 F3:G29 I3:I29">
+  <conditionalFormatting sqref="D3:D29 F3:H29">
     <cfRule type="cellIs" dxfId="30" priority="14" operator="greaterThan">
       <formula>1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H29 J3:J29 E3:E29">
+  <conditionalFormatting sqref="E3:E29 I3:J29 U3:V29">
     <cfRule type="cellIs" dxfId="29" priority="13" operator="lessThan">
       <formula>-1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P3:P29 R3:S29 U3:U29">
+  <conditionalFormatting sqref="P3:P29 R3:T29">
     <cfRule type="cellIs" dxfId="28" priority="8" operator="greaterThan">
       <formula>1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q29 T3:T29 V3:V29">
+  <conditionalFormatting sqref="Q3:Q29">
     <cfRule type="cellIs" dxfId="27" priority="7" operator="lessThan">
       <formula>-1.6</formula>
     </cfRule>
@@ -8822,7 +8767,7 @@
   <dimension ref="A1:AD75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8854,10 +8799,10 @@
         <v>63</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="20" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>7</v>
       </c>
       <c r="J1" s="20" t="s">
         <v>6</v>
@@ -8921,11 +8866,11 @@
       </c>
       <c r="H2" s="30">
         <f>AVERAGE('(ACG_LR)'!H2:H3)</f>
-        <v>5.2949999999999999</v>
+        <v>3.2199999999999998</v>
       </c>
       <c r="I2" s="30">
         <f>AVERAGE('(ACG_LR)'!I2:I3)</f>
-        <v>3.2199999999999998</v>
+        <v>5.2949999999999999</v>
       </c>
       <c r="J2" s="30">
         <f>AVERAGE('(ACG_LR)'!J2:J3)</f>
@@ -8999,11 +8944,11 @@
       </c>
       <c r="H3" s="30">
         <f>AVERAGE('(ACG_LR)'!H4:H5)</f>
-        <v>3.9699999999999998</v>
+        <v>3.8250000000000002</v>
       </c>
       <c r="I3" s="30">
         <f>AVERAGE('(ACG_LR)'!I4:I5)</f>
-        <v>3.8250000000000002</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="J3" s="30">
         <f>AVERAGE('(ACG_LR)'!J4:J5)</f>
@@ -9077,11 +9022,11 @@
       </c>
       <c r="H4" s="30">
         <f>AVERAGE('(ACG_LR)'!H6:H7)</f>
-        <v>3.38</v>
+        <v>3.76</v>
       </c>
       <c r="I4" s="30">
         <f>AVERAGE('(ACG_LR)'!I6:I7)</f>
-        <v>3.76</v>
+        <v>3.38</v>
       </c>
       <c r="J4" s="30">
         <f>AVERAGE('(ACG_LR)'!J6:J7)</f>
@@ -9155,11 +9100,11 @@
       </c>
       <c r="H5" s="30">
         <f>AVERAGE('(ACG_LR)'!H8:H9)</f>
-        <v>0.24</v>
+        <v>30.53</v>
       </c>
       <c r="I5" s="30">
         <f>AVERAGE('(ACG_LR)'!I8:I9)</f>
-        <v>30.53</v>
+        <v>0.24</v>
       </c>
       <c r="J5" s="30">
         <f>AVERAGE('(ACG_LR)'!J8:J9)</f>
@@ -9230,11 +9175,11 @@
       </c>
       <c r="H6" s="30">
         <f>AVERAGE('(ACG_LR)'!H10:H11)</f>
-        <v>2.5499999999999998</v>
+        <v>4.6349999999999998</v>
       </c>
       <c r="I6" s="30">
         <f>AVERAGE('(ACG_LR)'!I10:I11)</f>
-        <v>4.6349999999999998</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="J6" s="30">
         <f>AVERAGE('(ACG_LR)'!J10:J11)</f>
@@ -9305,11 +9250,11 @@
       </c>
       <c r="H7" s="30">
         <f>AVERAGE('(ACG_LR)'!H12:H13)</f>
-        <v>1.52</v>
+        <v>5.4649999999999999</v>
       </c>
       <c r="I7" s="30">
         <f>AVERAGE('(ACG_LR)'!I12:I13)</f>
-        <v>5.4649999999999999</v>
+        <v>1.52</v>
       </c>
       <c r="J7" s="30">
         <f>AVERAGE('(ACG_LR)'!J12:J13)</f>
@@ -9380,11 +9325,11 @@
       </c>
       <c r="H8" s="30">
         <f>AVERAGE('(ACG_LR)'!H14:H15)</f>
-        <v>2.58</v>
+        <v>4.2799999999999994</v>
       </c>
       <c r="I8" s="30">
         <f>AVERAGE('(ACG_LR)'!I14:I15)</f>
-        <v>4.2799999999999994</v>
+        <v>2.58</v>
       </c>
       <c r="J8" s="30">
         <f>AVERAGE('(ACG_LR)'!J14:J15)</f>
@@ -9455,11 +9400,11 @@
       </c>
       <c r="H9" s="30">
         <f>AVERAGE('(ACG_LR)'!H16:H17)</f>
-        <v>5.8599999999999994</v>
+        <v>2.5350000000000001</v>
       </c>
       <c r="I9" s="30">
         <f>AVERAGE('(ACG_LR)'!I16:I17)</f>
-        <v>2.5350000000000001</v>
+        <v>5.8599999999999994</v>
       </c>
       <c r="J9" s="30">
         <f>AVERAGE('(ACG_LR)'!J16:J17)</f>
@@ -9530,11 +9475,11 @@
       </c>
       <c r="H10" s="30">
         <f>AVERAGE('(ACG_LR)'!H18:H19)</f>
-        <v>0.215</v>
+        <v>12.19</v>
       </c>
       <c r="I10" s="30">
         <f>AVERAGE('(ACG_LR)'!I18:I19)</f>
-        <v>12.19</v>
+        <v>0.215</v>
       </c>
       <c r="J10" s="30">
         <f>AVERAGE('(ACG_LR)'!J18:J19)</f>
@@ -9605,11 +9550,11 @@
       </c>
       <c r="H11" s="30">
         <f>AVERAGE('(ACG_LR)'!H22:H23)</f>
-        <v>5.18</v>
+        <v>2.7199999999999998</v>
       </c>
       <c r="I11" s="30">
         <f>AVERAGE('(ACG_LR)'!I22:I23)</f>
-        <v>2.7199999999999998</v>
+        <v>5.18</v>
       </c>
       <c r="J11" s="30">
         <f>AVERAGE('(ACG_LR)'!J22:J23)</f>
@@ -9680,11 +9625,11 @@
       </c>
       <c r="H12" s="30">
         <f>AVERAGE('(ACG_LR)'!H24:H25)</f>
-        <v>3.48</v>
+        <v>3.2800000000000002</v>
       </c>
       <c r="I12" s="30">
         <f>AVERAGE('(ACG_LR)'!I24:I25)</f>
-        <v>3.2800000000000002</v>
+        <v>3.48</v>
       </c>
       <c r="J12" s="30">
         <f>AVERAGE('(ACG_LR)'!J24:J25)</f>
@@ -9755,11 +9700,11 @@
       </c>
       <c r="H13" s="30">
         <f>AVERAGE('(ACG_LR)'!H26:H27)</f>
-        <v>4.6500000000000004</v>
+        <v>3.3499999999999996</v>
       </c>
       <c r="I13" s="30">
         <f>AVERAGE('(ACG_LR)'!I26:I27)</f>
-        <v>3.3499999999999996</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J13" s="30">
         <f>AVERAGE('(ACG_LR)'!J26:J27)</f>
@@ -9830,11 +9775,11 @@
       </c>
       <c r="H14" s="30">
         <f>AVERAGE('(ACG_LR)'!H28:H29)</f>
-        <v>0.83000000000000007</v>
+        <v>8.31</v>
       </c>
       <c r="I14" s="30">
         <f>AVERAGE('(ACG_LR)'!I28:I29)</f>
-        <v>8.31</v>
+        <v>0.83000000000000007</v>
       </c>
       <c r="J14" s="30">
         <f>AVERAGE('(ACG_LR)'!J28:J29)</f>
@@ -9905,11 +9850,11 @@
       </c>
       <c r="H15" s="30">
         <f>AVERAGE('(ACG_LR)'!H30:H31)</f>
-        <v>6.0600000000000005</v>
+        <v>2.63</v>
       </c>
       <c r="I15" s="30">
         <f>AVERAGE('(ACG_LR)'!I30:I31)</f>
-        <v>2.63</v>
+        <v>6.0600000000000005</v>
       </c>
       <c r="J15" s="30">
         <f>AVERAGE('(ACG_LR)'!J30:J31)</f>
@@ -9980,11 +9925,11 @@
       </c>
       <c r="H16" s="30">
         <f>AVERAGE('(ACG_LR)'!H32:H33)</f>
-        <v>3.51</v>
+        <v>3.52</v>
       </c>
       <c r="I16" s="30">
         <f>AVERAGE('(ACG_LR)'!I32:I33)</f>
-        <v>3.52</v>
+        <v>3.51</v>
       </c>
       <c r="J16" s="30">
         <f>AVERAGE('(ACG_LR)'!J32:J33)</f>
@@ -10055,11 +10000,11 @@
       </c>
       <c r="H17" s="30">
         <f>AVERAGE('(ACG_LR)'!H34:H35)</f>
-        <v>3.1849999999999996</v>
+        <v>4.75</v>
       </c>
       <c r="I17" s="30">
         <f>AVERAGE('(ACG_LR)'!I34:I35)</f>
-        <v>4.75</v>
+        <v>3.1849999999999996</v>
       </c>
       <c r="J17" s="30">
         <f>AVERAGE('(ACG_LR)'!J34:J35)</f>
@@ -10130,11 +10075,11 @@
       </c>
       <c r="H18" s="30">
         <f>AVERAGE('(ACG_LR)'!H36:H37)</f>
-        <v>2.27</v>
+        <v>5.9849999999999994</v>
       </c>
       <c r="I18" s="30">
         <f>AVERAGE('(ACG_LR)'!I36:I37)</f>
-        <v>5.9849999999999994</v>
+        <v>2.27</v>
       </c>
       <c r="J18" s="30">
         <f>AVERAGE('(ACG_LR)'!J36:J37)</f>
@@ -10205,11 +10150,11 @@
       </c>
       <c r="H19" s="30">
         <f>AVERAGE('(ACG_LR)'!H38:H39)</f>
-        <v>5.8949999999999996</v>
+        <v>2.5700000000000003</v>
       </c>
       <c r="I19" s="30">
         <f>AVERAGE('(ACG_LR)'!I38:I39)</f>
-        <v>2.5700000000000003</v>
+        <v>5.8949999999999996</v>
       </c>
       <c r="J19" s="30">
         <f>AVERAGE('(ACG_LR)'!J38:J39)</f>
@@ -10280,11 +10225,11 @@
       </c>
       <c r="H20" s="30">
         <f>AVERAGE('(ACG_LR)'!H40:H41)</f>
-        <v>4.16</v>
+        <v>3.2199999999999998</v>
       </c>
       <c r="I20" s="30">
         <f>AVERAGE('(ACG_LR)'!I40:I41)</f>
-        <v>3.2199999999999998</v>
+        <v>4.16</v>
       </c>
       <c r="J20" s="30">
         <f>AVERAGE('(ACG_LR)'!J40:J41)</f>
@@ -10355,11 +10300,11 @@
       </c>
       <c r="H21" s="30">
         <f>AVERAGE('(ACG_LR)'!H42:H43)</f>
-        <v>6.11</v>
+        <v>2.375</v>
       </c>
       <c r="I21" s="30">
         <f>AVERAGE('(ACG_LR)'!I42:I43)</f>
-        <v>2.375</v>
+        <v>6.11</v>
       </c>
       <c r="J21" s="30">
         <f>AVERAGE('(ACG_LR)'!J42:J43)</f>
@@ -10430,11 +10375,11 @@
       </c>
       <c r="H22" s="30">
         <f>AVERAGE('(ACG_LR)'!H44:H45)</f>
-        <v>3.15</v>
+        <v>3.8149999999999999</v>
       </c>
       <c r="I22" s="30">
         <f>AVERAGE('(ACG_LR)'!I44:I45)</f>
-        <v>3.8149999999999999</v>
+        <v>3.15</v>
       </c>
       <c r="J22" s="30">
         <f>AVERAGE('(ACG_LR)'!J44:J45)</f>
@@ -10505,11 +10450,11 @@
       </c>
       <c r="H23" s="30">
         <f>AVERAGE('(ACG_LR)'!H46:H47)</f>
-        <v>4.0149999999999997</v>
+        <v>3.3600000000000003</v>
       </c>
       <c r="I23" s="30">
         <f>AVERAGE('(ACG_LR)'!I46:I47)</f>
-        <v>3.3600000000000003</v>
+        <v>4.0149999999999997</v>
       </c>
       <c r="J23" s="30">
         <f>AVERAGE('(ACG_LR)'!J46:J47)</f>
@@ -10580,11 +10525,11 @@
       </c>
       <c r="H24" s="30">
         <f>AVERAGE('(ACG_LR)'!H48:H49)</f>
-        <v>4.1449999999999996</v>
+        <v>3.5249999999999999</v>
       </c>
       <c r="I24" s="30">
         <f>AVERAGE('(ACG_LR)'!I48:I49)</f>
-        <v>3.5249999999999999</v>
+        <v>4.1449999999999996</v>
       </c>
       <c r="J24" s="30">
         <f>AVERAGE('(ACG_LR)'!J48:J49)</f>
@@ -10655,11 +10600,11 @@
       </c>
       <c r="H25" s="30">
         <f>AVERAGE('(ACG_LR)'!H50:H51)</f>
-        <v>21.075000000000003</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I25" s="30">
         <f>AVERAGE('(ACG_LR)'!I50:I51)</f>
-        <v>1.1000000000000001</v>
+        <v>21.075000000000003</v>
       </c>
       <c r="J25" s="30">
         <f>AVERAGE('(ACG_LR)'!J50:J51)</f>
@@ -10730,11 +10675,11 @@
       </c>
       <c r="H26" s="30">
         <f>AVERAGE('(ACG_LR)'!H52:H53)</f>
-        <v>4.0650000000000004</v>
+        <v>3</v>
       </c>
       <c r="I26" s="30">
         <f>AVERAGE('(ACG_LR)'!I52:I53)</f>
-        <v>3</v>
+        <v>4.0650000000000004</v>
       </c>
       <c r="J26" s="30">
         <f>AVERAGE('(ACG_LR)'!J52:J53)</f>
@@ -10805,11 +10750,11 @@
       </c>
       <c r="H27" s="30">
         <f>AVERAGE('(ACG_LR)'!H54:H55)</f>
-        <v>4.3849999999999998</v>
+        <v>4.0449999999999999</v>
       </c>
       <c r="I27" s="30">
         <f>AVERAGE('(ACG_LR)'!I54:I55)</f>
-        <v>4.0449999999999999</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="J27" s="30">
         <f>AVERAGE('(ACG_LR)'!J54:J55)</f>
@@ -10880,11 +10825,11 @@
       </c>
       <c r="H28" s="30">
         <f>AVERAGE('(ACG_LR)'!H56:H57)</f>
-        <v>5.68</v>
+        <v>2.5</v>
       </c>
       <c r="I28" s="30">
         <f>AVERAGE('(ACG_LR)'!I56:I57)</f>
-        <v>2.5</v>
+        <v>5.68</v>
       </c>
       <c r="J28" s="30">
         <f>AVERAGE('(ACG_LR)'!J56:J57)</f>
@@ -11022,10 +10967,10 @@
         <v>63</v>
       </c>
       <c r="H32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>6</v>
@@ -11095,12 +11040,12 @@
         <v>6.5370370370370372</v>
       </c>
       <c r="H33" s="12">
-        <f t="shared" si="2"/>
+        <f>AVERAGE(H2:H28)</f>
+        <v>4.9812962962962954</v>
+      </c>
+      <c r="I33" s="12">
+        <f>AVERAGE(I2:I28)</f>
         <v>4.350185185185186</v>
-      </c>
-      <c r="I33" s="12">
-        <f t="shared" si="2"/>
-        <v>4.9812962962962954</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="2"/>
@@ -11166,12 +11111,12 @@
         <v>4.7995484469817109</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="3"/>
+        <f>_xlfn.STDEV.P(H2:H28)</f>
+        <v>5.4289316854738408</v>
+      </c>
+      <c r="I34" s="2">
+        <f>_xlfn.STDEV.P(I2:I28)</f>
         <v>3.6745472085589905</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" si="3"/>
-        <v>5.4289316854738408</v>
       </c>
       <c r="J34" s="2">
         <f t="shared" si="3"/>
@@ -11237,12 +11182,12 @@
         <v>5</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="4"/>
+        <f>MEDIAN(H2:H28)</f>
+        <v>3.52</v>
+      </c>
+      <c r="I35" s="2">
+        <f>MEDIAN(I2:I28)</f>
         <v>4.0149999999999997</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="4"/>
-        <v>3.52</v>
       </c>
       <c r="J35" s="2">
         <f t="shared" si="4"/>
@@ -11299,12 +11244,12 @@
         <v>3.2857142857142856</v>
       </c>
       <c r="H36" s="12">
-        <f t="shared" si="5"/>
+        <f>AVERAGE(H3:H4,H9,H26:H28,H21)</f>
+        <v>3.1485714285714286</v>
+      </c>
+      <c r="I36" s="12">
+        <f>AVERAGE(I3:I4,I9,I26:I28,I21)</f>
         <v>4.7785714285714276</v>
-      </c>
-      <c r="I36" s="12">
-        <f t="shared" si="5"/>
-        <v>3.1485714285714286</v>
       </c>
       <c r="J36" s="12">
         <f t="shared" si="5"/>
@@ -11355,12 +11300,12 @@
         <v>1.2198750911856666</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="6"/>
+        <f>STDEVA(H3:H4,H9,H26:H28,H21)</f>
+        <v>0.71327714509458917</v>
+      </c>
+      <c r="I37" s="2">
+        <f>STDEVA(I3:I4,I9,I26:I28,I21)</f>
         <v>1.0823304882124893</v>
-      </c>
-      <c r="I37" s="2">
-        <f t="shared" si="6"/>
-        <v>0.71327714509458917</v>
       </c>
       <c r="J37" s="2">
         <f t="shared" si="6"/>
@@ -11411,12 +11356,12 @@
         <v>3.5</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="7"/>
+        <f>MEDIAN(H3:H4,H9,H26:H28,H21)</f>
+        <v>3</v>
+      </c>
+      <c r="I38" s="2">
+        <f>MEDIAN(I3:I4,I9,I26:I28,I21)</f>
         <v>4.3849999999999998</v>
-      </c>
-      <c r="I38" s="2">
-        <f t="shared" si="7"/>
-        <v>3</v>
       </c>
       <c r="J38" s="2">
         <f t="shared" si="7"/>
@@ -11438,6 +11383,9 @@
         <f>MEDIAN(N3:N4,N9,N26:N28,N21)</f>
         <v>0.48499999999999999</v>
       </c>
+      <c r="P38" t="s">
+        <v>225</v>
+      </c>
       <c r="Q38" t="s">
         <v>196</v>
       </c>
@@ -11491,12 +11439,12 @@
         <v>7.6749999999999998</v>
       </c>
       <c r="H39" s="12">
-        <f t="shared" si="8"/>
+        <f>AVERAGE(H2,H5:H8,H10:H20,H22:H25)</f>
+        <v>5.6227499999999981</v>
+      </c>
+      <c r="I39" s="12">
+        <f>AVERAGE(I2,I5:I8,I10:I20,I22:I25)</f>
         <v>4.2002500000000005</v>
-      </c>
-      <c r="I39" s="12">
-        <f t="shared" si="8"/>
-        <v>5.6227499999999981</v>
       </c>
       <c r="J39" s="12">
         <f t="shared" si="8"/>
@@ -11575,12 +11523,12 @@
         <v>5.0652615924550233</v>
       </c>
       <c r="H40" s="2">
-        <f t="shared" si="9"/>
+        <f>_xlfn.STDEV.P(H2,H5:H8,H10:H20,H22:H25)</f>
+        <v>6.1684077108683431</v>
+      </c>
+      <c r="I40" s="2">
+        <f>_xlfn.STDEV.P(I2,I5:I8,I10:I20,I22:I25)</f>
         <v>4.2178144444131256</v>
-      </c>
-      <c r="I40" s="2">
-        <f t="shared" si="9"/>
-        <v>6.1684077108683431</v>
       </c>
       <c r="J40" s="2">
         <f t="shared" si="9"/>
@@ -11626,11 +11574,11 @@
         <v>3.5981435689612415</v>
       </c>
       <c r="V40">
-        <f t="shared" si="10"/>
+        <f>(I39-I36)/I37</f>
         <v>-0.53432979563067406</v>
       </c>
       <c r="W40">
-        <f t="shared" si="10"/>
+        <f>(H39-H36)/H37</f>
         <v>3.468747861114299</v>
       </c>
       <c r="X40">
@@ -11664,12 +11612,12 @@
         <v>7</v>
       </c>
       <c r="H41" s="2">
-        <f t="shared" si="11"/>
+        <f>MEDIAN(H2,H5:H8,H10:H20,H22:H25)</f>
+        <v>3.5225</v>
+      </c>
+      <c r="I41" s="2">
+        <f>MEDIAN(I2,I5:I8,I10:I20,I22:I25)</f>
         <v>3.4950000000000001</v>
-      </c>
-      <c r="I41" s="2">
-        <f t="shared" si="11"/>
-        <v>3.5225</v>
       </c>
       <c r="J41" s="2">
         <f t="shared" si="11"/>
@@ -11747,12 +11695,12 @@
         <v>6.833333333333333</v>
       </c>
       <c r="H42" s="12">
-        <f t="shared" si="12"/>
+        <f>AVERAGE(H13,H14,H15)</f>
+        <v>4.7633333333333328</v>
+      </c>
+      <c r="I42" s="12">
+        <f>AVERAGE(I13,I14,I15)</f>
         <v>3.8466666666666671</v>
-      </c>
-      <c r="I42" s="12">
-        <f t="shared" si="12"/>
-        <v>4.7633333333333328</v>
       </c>
       <c r="J42" s="12">
         <f t="shared" si="12"/>
@@ -11803,12 +11751,12 @@
         <v>6.6583281184793925</v>
       </c>
       <c r="H43" s="2">
-        <f t="shared" si="13"/>
+        <f>STDEVA(H13,H14,H15)</f>
+        <v>3.0925286309642046</v>
+      </c>
+      <c r="I43" s="2">
+        <f>STDEVA(I13,I14,I15)</f>
         <v>2.7059625520936792</v>
-      </c>
-      <c r="I43" s="2">
-        <f t="shared" si="13"/>
-        <v>3.0925286309642046</v>
       </c>
       <c r="J43" s="2">
         <f t="shared" si="13"/>
@@ -11856,12 +11804,12 @@
         <v>3.5</v>
       </c>
       <c r="H44" s="2">
-        <f t="shared" si="14"/>
+        <f>MEDIAN(H13,H14,H15)</f>
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="I44" s="2">
+        <f>MEDIAN(I13,I14,I15)</f>
         <v>4.6500000000000004</v>
-      </c>
-      <c r="I44" s="2">
-        <f t="shared" si="14"/>
-        <v>3.3499999999999996</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" si="14"/>
@@ -11907,11 +11855,11 @@
         <v>-0.86654669934989914</v>
       </c>
       <c r="V44">
-        <f t="shared" si="15"/>
+        <f>(I36-I39)/I40</f>
         <v>0.13711400446680763</v>
       </c>
       <c r="W44">
-        <f t="shared" si="15"/>
+        <f>(H36-H39)/H40</f>
         <v>-0.40110490217260181</v>
       </c>
       <c r="X44">
@@ -11962,10 +11910,10 @@
         <v>63</v>
       </c>
       <c r="H46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>6</v>
@@ -11994,15 +11942,14 @@
         <v>4.2962962962962967</v>
       </c>
       <c r="H47" s="13">
+        <v>4.2418518518518518</v>
+      </c>
+      <c r="I47" s="13">
         <v>6.2477777777777765</v>
-      </c>
-      <c r="I47" s="13">
-        <v>4.2418518518518518</v>
       </c>
       <c r="J47" s="14">
         <v>70.449629629629626</v>
       </c>
-      <c r="K47" s="32"/>
       <c r="L47" s="32"/>
       <c r="M47" s="32"/>
       <c r="N47" s="32"/>
@@ -12028,15 +11975,14 @@
         <v>3.0161886031855305</v>
       </c>
       <c r="H48" s="2">
+        <v>3.8151637380881183</v>
+      </c>
+      <c r="I48" s="2">
         <v>5.7393020180437455</v>
-      </c>
-      <c r="I48" s="2">
-        <v>3.8151637380881183</v>
       </c>
       <c r="J48" s="2">
         <v>20.711846222316883</v>
       </c>
-      <c r="K48" s="35"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
@@ -12062,15 +12008,14 @@
         <v>4</v>
       </c>
       <c r="H49" s="2">
+        <v>3.29</v>
+      </c>
+      <c r="I49" s="2">
         <v>4.96</v>
-      </c>
-      <c r="I49" s="2">
-        <v>3.29</v>
       </c>
       <c r="J49" s="2">
         <v>78.41</v>
       </c>
-      <c r="K49" s="36"/>
       <c r="L49" s="36"/>
       <c r="M49" s="36"/>
       <c r="N49" s="36"/>
@@ -12559,8 +12504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42C06436-A931-4785-9524-F0157CB4EFCF}">
   <dimension ref="A1:AJ58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U1" sqref="U1:U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12571,11 +12516,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>180</v>
+      <c r="C1" t="s">
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>196</v>
@@ -12590,21 +12532,18 @@
         <v>196</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>197</v>
       </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>180</v>
+      <c r="O1" t="s">
+        <v>225</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>196</v>
@@ -12619,15 +12558,14 @@
         <v>196</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="W1" s="67"/>
       <c r="X1" s="67"/>
       <c r="Y1" s="67"/>
       <c r="Z1" s="67"/>
@@ -12665,10 +12603,10 @@
         <v>63</v>
       </c>
       <c r="H2" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="I2" s="50" t="s">
         <v>168</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="J2" s="50" t="s">
         <v>170</v>
@@ -12694,10 +12632,10 @@
         <v>63</v>
       </c>
       <c r="T2" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="U2" s="50" t="s">
         <v>168</v>
-      </c>
-      <c r="U2" s="50" t="s">
-        <v>169</v>
       </c>
       <c r="V2" s="50" t="s">
         <v>170</v>
@@ -12738,18 +12676,18 @@
       </c>
       <c r="H3" s="2">
         <f>STANDARDIZE(ACG!H2,ACG!$H$36,ACG!$H$37)</f>
-        <v>0.47714499134314703</v>
+        <v>0.1001413993421854</v>
       </c>
       <c r="I3" s="2">
         <f>STANDARDIZE(ACG!I2,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.1001413993421854</v>
+        <v>0.47714499134314703</v>
       </c>
       <c r="J3" s="2">
         <f>STANDARDIZE(ACG!J2,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.55815329765876953</v>
       </c>
       <c r="L3" t="str">
-        <f>IF(OR(OR(E3&lt;-1.6,H3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,I3&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(E3&lt;-1.6,I3&lt;-1.6,J3&lt;-1.6),OR(D3&gt;1.6,F3&gt;1.6,G3&gt;1.6,H3&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M3" t="str">
@@ -12781,18 +12719,18 @@
       </c>
       <c r="T3" s="2">
         <f>STANDARDIZE(ACG!H2,ACG!$H$38,ACG!$H$37)</f>
-        <v>0.84077831116344171</v>
+        <v>0.30843550997393177</v>
       </c>
       <c r="U3" s="2">
         <f>STANDARDIZE(ACG!I2,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.30843550997393177</v>
+        <v>0.84077831116344171</v>
       </c>
       <c r="V3" s="2">
         <f>STANDARDIZE(ACG!J2,ACG!$J$38,ACG!$J$37)</f>
         <v>-0.19731327229583862</v>
       </c>
       <c r="X3" t="str">
-        <f>IF(OR(OR(Q3&lt;-1.6,T3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,U3&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(Q3&lt;-1.6,U3&lt;-1.6,V3&lt;-1.6),OR(P3&gt;1.6,R3&gt;1.6,S3&gt;1.6,T3&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y3" t="str">
@@ -12833,22 +12771,22 @@
       </c>
       <c r="H4" s="2">
         <f>STANDARDIZE(ACG!H3,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.74706518699922686</v>
+        <v>0.94833905177049937</v>
       </c>
       <c r="I4" s="2">
         <f>STANDARDIZE(ACG!I3,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.94833905177049937</v>
+        <v>-0.74706518699922686</v>
       </c>
       <c r="J4" s="2">
         <f>STANDARDIZE(ACG!J3,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.41760137766721395</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L4:L29" si="0">IF(OR(OR(E4&lt;-1.6,H4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,I4&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(E4&lt;-1.6,I4&lt;-1.6,J4&lt;-1.6),OR(D4&gt;1.6,F4&gt;1.6,G4&gt;1.6,H4&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="M4" t="str">
-        <f t="shared" ref="M4:M29" si="1">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="M4:M29" si="0">IF(AND(L4="y",A4="y"),"TP",IF(AND(L4="y",A4="x"),"FP",IF(AND(L4="x",A4="y"),"FN","TN")))</f>
         <v>TN</v>
       </c>
       <c r="N4" s="52"/>
@@ -12874,22 +12812,22 @@
       </c>
       <c r="T4" s="2">
         <f>STANDARDIZE(ACG!H3,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.38343186717893218</v>
+        <v>1.1566331624022457</v>
       </c>
       <c r="U4" s="2">
         <f>STANDARDIZE(ACG!I3,ACG!$I$38,ACG!$I$37)</f>
-        <v>1.1566331624022457</v>
+        <v>-0.38343186717893218</v>
       </c>
       <c r="V4" s="2">
         <f>STANDARDIZE(ACG!J3,ACG!$J$38,ACG!$J$37)</f>
         <v>-5.6761352304283079E-2</v>
       </c>
       <c r="X4" t="str">
-        <f t="shared" ref="X4:X29" si="2">IF(OR(OR(Q4&lt;-1.6,T4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,U4&gt;1.6)),"y","x")</f>
+        <f>IF(OR(OR(Q4&lt;-1.6,U4&lt;-1.6,V4&lt;-1.6),OR(P4&gt;1.6,R4&gt;1.6,S4&gt;1.6,T4&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y4" t="str">
-        <f t="shared" ref="Y4:Y29" si="3">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
+        <f t="shared" ref="Y4:Y29" si="1">IF(AND(X4="y",A4="y"),"TP",IF(AND(X4="y",A4="x"),"FP",IF(AND(X4="x",A4="y"),"FN","TN")))</f>
         <v>TN</v>
       </c>
       <c r="AC4" s="51"/>
@@ -12926,22 +12864,22 @@
       </c>
       <c r="H5" s="2">
         <f>STANDARDIZE(ACG!H4,ACG!$H$36,ACG!$H$37)</f>
-        <v>-1.2921851909403592</v>
+        <v>0.85721037836910985</v>
       </c>
       <c r="I5" s="2">
         <f>STANDARDIZE(ACG!I4,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.85721037836910985</v>
+        <v>-1.2921851909403592</v>
       </c>
       <c r="J5" s="2">
         <f>STANDARDIZE(ACG!J4,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.79871331456738504</v>
       </c>
       <c r="L5" t="str">
+        <f>IF(OR(OR(E5&lt;-1.6,I5&lt;-1.6,J5&lt;-1.6),OR(D5&gt;1.6,F5&gt;1.6,G5&gt;1.6,H5&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M5" t="str">
-        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="N5" s="52"/>
@@ -12967,22 +12905,22 @@
       </c>
       <c r="T5" s="2">
         <f>STANDARDIZE(ACG!H4,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.92855187112006454</v>
+        <v>1.0655044890008563</v>
       </c>
       <c r="U5" s="2">
         <f>STANDARDIZE(ACG!I4,ACG!$I$38,ACG!$I$37)</f>
-        <v>1.0655044890008563</v>
+        <v>-0.92855187112006454</v>
       </c>
       <c r="V5" s="2">
         <f>STANDARDIZE(ACG!J4,ACG!$J$38,ACG!$J$37)</f>
         <v>-0.43787328920445406</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q5&lt;-1.6,U5&lt;-1.6,V5&lt;-1.6),OR(P5&gt;1.6,R5&gt;1.6,S5&gt;1.6,T5&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="AC5" s="51"/>
@@ -13019,22 +12957,22 @@
       </c>
       <c r="H6" s="2">
         <f>STANDARDIZE(ACG!H5,ACG!$H$36,ACG!$H$37)</f>
-        <v>-4.1933323305592669</v>
+        <v>38.388204023833488</v>
       </c>
       <c r="I6" s="2">
         <f>STANDARDIZE(ACG!I5,ACG!$I$36,ACG!$I$37)</f>
-        <v>38.388204023833488</v>
+        <v>-4.1933323305592669</v>
       </c>
       <c r="J6" s="2">
         <f>STANDARDIZE(ACG!J5,ACG!$J$36,ACG!$J$37)</f>
         <v>-16.305374179789276</v>
       </c>
       <c r="L6" t="str">
+        <f>IF(OR(OR(E6&lt;-1.6,I6&lt;-1.6,J6&lt;-1.6),OR(D6&gt;1.6,F6&gt;1.6,G6&gt;1.6,H6&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M6" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N6" s="52"/>
@@ -13060,22 +12998,22 @@
       </c>
       <c r="T6" s="2">
         <f>STANDARDIZE(ACG!H5,ACG!$H$38,ACG!$H$37)</f>
-        <v>-3.8296990107389726</v>
+        <v>38.596498134465236</v>
       </c>
       <c r="U6" s="2">
         <f>STANDARDIZE(ACG!I5,ACG!$I$38,ACG!$I$37)</f>
-        <v>38.596498134465236</v>
+        <v>-3.8296990107389726</v>
       </c>
       <c r="V6" s="2">
         <f>STANDARDIZE(ACG!J5,ACG!$J$38,ACG!$J$37)</f>
         <v>-15.944534154426345</v>
       </c>
       <c r="X6" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q6&lt;-1.6,U6&lt;-1.6,V6&lt;-1.6),OR(P6&gt;1.6,R6&gt;1.6,S6&gt;1.6,T6&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC6" s="51"/>
@@ -13112,22 +13050,22 @@
       </c>
       <c r="H7" s="2">
         <f>STANDARDIZE(ACG!H6,ACG!$H$36,ACG!$H$37)</f>
-        <v>-2.0590489252982236</v>
+        <v>2.0839425203108854</v>
       </c>
       <c r="I7" s="2">
         <f>STANDARDIZE(ACG!I6,ACG!$I$36,ACG!$I$37)</f>
-        <v>2.0839425203108854</v>
+        <v>-2.0590489252982236</v>
       </c>
       <c r="J7" s="2">
         <f>STANDARDIZE(ACG!J6,ACG!$J$36,ACG!$J$37)</f>
         <v>-2.9786195352056017</v>
       </c>
       <c r="L7" t="str">
+        <f>IF(OR(OR(E7&lt;-1.6,I7&lt;-1.6,J7&lt;-1.6),OR(D7&gt;1.6,F7&gt;1.6,G7&gt;1.6,H7&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M7" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N7" s="52"/>
@@ -13153,22 +13091,22 @@
       </c>
       <c r="T7" s="2">
         <f>STANDARDIZE(ACG!H6,ACG!$H$38,ACG!$H$37)</f>
-        <v>-1.6954156054779288</v>
+        <v>2.2922366309426319</v>
       </c>
       <c r="U7" s="2">
         <f>STANDARDIZE(ACG!I6,ACG!$I$38,ACG!$I$37)</f>
-        <v>2.2922366309426319</v>
+        <v>-1.6954156054779288</v>
       </c>
       <c r="V7" s="2">
         <f>STANDARDIZE(ACG!J6,ACG!$J$38,ACG!$J$37)</f>
         <v>-2.6177795098426708</v>
       </c>
       <c r="X7" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q7&lt;-1.6,U7&lt;-1.6,V7&lt;-1.6),OR(P7&gt;1.6,R7&gt;1.6,S7&gt;1.6,T7&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC7" s="51"/>
@@ -13205,22 +13143,22 @@
       </c>
       <c r="H8" s="2">
         <f>STANDARDIZE(ACG!H7,ACG!$H$36,ACG!$H$37)</f>
-        <v>-3.0106991016700309</v>
+        <v>3.2475855806670841</v>
       </c>
       <c r="I8" s="2">
         <f>STANDARDIZE(ACG!I7,ACG!$I$36,ACG!$I$37)</f>
-        <v>3.2475855806670841</v>
+        <v>-3.0106991016700309</v>
       </c>
       <c r="J8" s="2">
         <f>STANDARDIZE(ACG!J7,ACG!$J$36,ACG!$J$37)</f>
         <v>-5.5545037612046366</v>
       </c>
       <c r="L8" t="str">
+        <f>IF(OR(OR(E8&lt;-1.6,I8&lt;-1.6,J8&lt;-1.6),OR(D8&gt;1.6,F8&gt;1.6,G8&gt;1.6,H8&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M8" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N8" s="52"/>
@@ -13246,22 +13184,22 @@
       </c>
       <c r="T8" s="2">
         <f>STANDARDIZE(ACG!H7,ACG!$H$38,ACG!$H$37)</f>
-        <v>-2.6470657818497361</v>
+        <v>3.4558796912988305</v>
       </c>
       <c r="U8" s="2">
         <f>STANDARDIZE(ACG!I7,ACG!$I$38,ACG!$I$37)</f>
-        <v>3.4558796912988305</v>
+        <v>-2.6470657818497361</v>
       </c>
       <c r="V8" s="2">
         <f>STANDARDIZE(ACG!J7,ACG!$J$38,ACG!$J$37)</f>
         <v>-5.1936637358417057</v>
       </c>
       <c r="X8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q8&lt;-1.6,U8&lt;-1.6,V8&lt;-1.6),OR(P8&gt;1.6,R8&gt;1.6,S8&gt;1.6,T8&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y8" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC8" s="51"/>
@@ -13298,22 +13236,22 @@
       </c>
       <c r="H9" s="2">
         <f>STANDARDIZE(ACG!H8,ACG!$H$36,ACG!$H$37)</f>
-        <v>-2.0313309589961319</v>
+        <v>1.5862397655802216</v>
       </c>
       <c r="I9" s="2">
         <f>STANDARDIZE(ACG!I8,ACG!$I$36,ACG!$I$37)</f>
-        <v>1.5862397655802216</v>
+        <v>-2.0313309589961319</v>
       </c>
       <c r="J9" s="2">
         <f>STANDARDIZE(ACG!J8,ACG!$J$36,ACG!$J$37)</f>
         <v>-2.2190985829435563</v>
       </c>
       <c r="L9" t="str">
+        <f>IF(OR(OR(E9&lt;-1.6,I9&lt;-1.6,J9&lt;-1.6),OR(D9&gt;1.6,F9&gt;1.6,G9&gt;1.6,H9&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M9" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N9" s="52"/>
@@ -13339,22 +13277,22 @@
       </c>
       <c r="T9" s="2">
         <f>STANDARDIZE(ACG!H8,ACG!$H$38,ACG!$H$37)</f>
-        <v>-1.6676976391758371</v>
+        <v>1.7945338762119678</v>
       </c>
       <c r="U9" s="2">
         <f>STANDARDIZE(ACG!I8,ACG!$I$38,ACG!$I$37)</f>
-        <v>1.7945338762119678</v>
+        <v>-1.6676976391758371</v>
       </c>
       <c r="V9" s="2">
         <f>STANDARDIZE(ACG!J8,ACG!$J$38,ACG!$J$37)</f>
         <v>-1.8582585575806256</v>
       </c>
       <c r="X9" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q9&lt;-1.6,U9&lt;-1.6,V9&lt;-1.6),OR(P9&gt;1.6,R9&gt;1.6,S9&gt;1.6,T9&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y9" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC9" s="51"/>
@@ -13391,22 +13329,22 @@
       </c>
       <c r="H10" s="2">
         <f>STANDARDIZE(ACG!H9,ACG!$H$36,ACG!$H$37)</f>
-        <v>0.99916669003253611</v>
+        <v>-0.86021462034937546</v>
       </c>
       <c r="I10" s="2">
         <f>STANDARDIZE(ACG!I9,ACG!$I$36,ACG!$I$37)</f>
-        <v>-0.86021462034937546</v>
+        <v>0.99916669003253611</v>
       </c>
       <c r="J10" s="2">
         <f>STANDARDIZE(ACG!J9,ACG!$J$36,ACG!$J$37)</f>
         <v>-1.2433439076175883</v>
       </c>
       <c r="L10" t="str">
+        <f>IF(OR(OR(E10&lt;-1.6,I10&lt;-1.6,J10&lt;-1.6),OR(D10&gt;1.6,F10&gt;1.6,G10&gt;1.6,H10&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M10" t="str">
-        <f t="shared" si="1"/>
         <v>FP</v>
       </c>
       <c r="N10" s="52"/>
@@ -13432,22 +13370,22 @@
       </c>
       <c r="T10" s="2">
         <f>STANDARDIZE(ACG!H9,ACG!$H$38,ACG!$H$37)</f>
-        <v>1.3628000098528308</v>
+        <v>-0.65192050971762905</v>
       </c>
       <c r="U10" s="2">
         <f>STANDARDIZE(ACG!I9,ACG!$I$38,ACG!$I$37)</f>
-        <v>-0.65192050971762905</v>
+        <v>1.3628000098528308</v>
       </c>
       <c r="V10" s="2">
         <f>STANDARDIZE(ACG!J9,ACG!$J$38,ACG!$J$37)</f>
         <v>-0.88250388225465748</v>
       </c>
       <c r="X10" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q10&lt;-1.6,U10&lt;-1.6,V10&lt;-1.6),OR(P10&gt;1.6,R10&gt;1.6,S10&gt;1.6,T10&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y10" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FP</v>
       </c>
       <c r="AC10" s="51"/>
@@ -13484,22 +13422,22 @@
       </c>
       <c r="H11" s="2">
         <f>STANDARDIZE(ACG!H10,ACG!$H$36,ACG!$H$37)</f>
-        <v>-4.21643063581101</v>
+        <v>12.675898328733874</v>
       </c>
       <c r="I11" s="2">
         <f>STANDARDIZE(ACG!I10,ACG!$I$36,ACG!$I$37)</f>
-        <v>12.675898328733874</v>
+        <v>-4.21643063581101</v>
       </c>
       <c r="J11" s="2">
         <f>STANDARDIZE(ACG!J10,ACG!$J$36,ACG!$J$37)</f>
         <v>-17.668998095861166</v>
       </c>
       <c r="L11" t="str">
+        <f>IF(OR(OR(E11&lt;-1.6,I11&lt;-1.6,J11&lt;-1.6),OR(D11&gt;1.6,F11&gt;1.6,G11&gt;1.6,H11&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M11" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N11" s="52"/>
@@ -13525,22 +13463,22 @@
       </c>
       <c r="T11" s="2">
         <f>STANDARDIZE(ACG!H10,ACG!$H$38,ACG!$H$37)</f>
-        <v>-3.8527973159907156</v>
+        <v>12.88419243936562</v>
       </c>
       <c r="U11" s="2">
         <f>STANDARDIZE(ACG!I10,ACG!$I$38,ACG!$I$37)</f>
-        <v>12.88419243936562</v>
+        <v>-3.8527973159907156</v>
       </c>
       <c r="V11" s="2">
         <f>STANDARDIZE(ACG!J10,ACG!$J$38,ACG!$J$37)</f>
         <v>-17.308158070498237</v>
       </c>
       <c r="X11" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q11&lt;-1.6,U11&lt;-1.6,V11&lt;-1.6),OR(P11&gt;1.6,R11&gt;1.6,S11&gt;1.6,T11&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y11" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC11" s="51"/>
@@ -13577,22 +13515,22 @@
       </c>
       <c r="H12" s="2">
         <f>STANDARDIZE(ACG!H11,ACG!$H$36,ACG!$H$37)</f>
-        <v>0.37089278718512952</v>
+        <v>-0.60084839605311491</v>
       </c>
       <c r="I12" s="2">
         <f>STANDARDIZE(ACG!I11,ACG!$I$36,ACG!$I$37)</f>
-        <v>-0.60084839605311491</v>
+        <v>0.37089278718512952</v>
       </c>
       <c r="J12" s="2">
         <f>STANDARDIZE(ACG!J11,ACG!$J$36,ACG!$J$37)</f>
         <v>0.4446305930501957</v>
       </c>
       <c r="L12" t="str">
+        <f>IF(OR(OR(E12&lt;-1.6,I12&lt;-1.6,J12&lt;-1.6),OR(D12&gt;1.6,F12&gt;1.6,G12&gt;1.6,H12&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M12" t="str">
-        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="N12" s="52"/>
@@ -13618,22 +13556,22 @@
       </c>
       <c r="T12" s="2">
         <f>STANDARDIZE(ACG!H11,ACG!$H$38,ACG!$H$37)</f>
-        <v>0.7345261070054242</v>
+        <v>-0.3925542854213685</v>
       </c>
       <c r="U12" s="2">
         <f>STANDARDIZE(ACG!I11,ACG!$I$38,ACG!$I$37)</f>
-        <v>-0.3925542854213685</v>
+        <v>0.7345261070054242</v>
       </c>
       <c r="V12" s="2">
         <f>STANDARDIZE(ACG!J11,ACG!$J$38,ACG!$J$37)</f>
         <v>0.80547061841312662</v>
       </c>
       <c r="X12" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q12&lt;-1.6,U12&lt;-1.6,V12&lt;-1.6),OR(P12&gt;1.6,R12&gt;1.6,S12&gt;1.6,T12&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y12" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="AC12" s="51"/>
@@ -13670,22 +13608,22 @@
       </c>
       <c r="H13" s="2">
         <f>STANDARDIZE(ACG!H12,ACG!$H$36,ACG!$H$37)</f>
-        <v>-1.1997919699333874</v>
+        <v>0.18426017478962214</v>
       </c>
       <c r="I13" s="2">
         <f>STANDARDIZE(ACG!I12,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.18426017478962214</v>
+        <v>-1.1997919699333874</v>
       </c>
       <c r="J13" s="2">
         <f>STANDARDIZE(ACG!J12,ACG!$J$36,ACG!$J$37)</f>
         <v>-4.1151980420603698</v>
       </c>
       <c r="L13" t="str">
+        <f>IF(OR(OR(E13&lt;-1.6,I13&lt;-1.6,J13&lt;-1.6),OR(D13&gt;1.6,F13&gt;1.6,G13&gt;1.6,H13&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M13" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N13" s="52"/>
@@ -13711,22 +13649,22 @@
       </c>
       <c r="T13" s="2">
         <f>STANDARDIZE(ACG!H12,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.83615865011309287</v>
+        <v>0.3925542854213685</v>
       </c>
       <c r="U13" s="2">
         <f>STANDARDIZE(ACG!I12,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.3925542854213685</v>
+        <v>-0.83615865011309287</v>
       </c>
       <c r="V13" s="2">
         <f>STANDARDIZE(ACG!J12,ACG!$J$38,ACG!$J$37)</f>
         <v>-3.7543580166974384</v>
       </c>
       <c r="X13" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q13&lt;-1.6,U13&lt;-1.6,V13&lt;-1.6),OR(P13&gt;1.6,R13&gt;1.6,S13&gt;1.6,T13&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y13" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC13" s="51"/>
@@ -13763,22 +13701,22 @@
       </c>
       <c r="H14" s="2">
         <f>STANDARDIZE(ACG!H13,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.11879128415181939</v>
+        <v>0.28239874614496335</v>
       </c>
       <c r="I14" s="2">
         <f>STANDARDIZE(ACG!I13,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.28239874614496335</v>
+        <v>-0.11879128415181939</v>
       </c>
       <c r="J14" s="2">
         <f>STANDARDIZE(ACG!J13,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.46895688689489612</v>
       </c>
       <c r="L14" t="str">
+        <f>IF(OR(OR(E14&lt;-1.6,I14&lt;-1.6,J14&lt;-1.6),OR(D14&gt;1.6,F14&gt;1.6,G14&gt;1.6,H14&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M14" t="str">
-        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="N14" s="52"/>
@@ -13804,22 +13742,22 @@
       </c>
       <c r="T14" s="2">
         <f>STANDARDIZE(ACG!H13,ACG!$H$38,ACG!$H$37)</f>
-        <v>0.24484203566847526</v>
+        <v>0.49069285677670971</v>
       </c>
       <c r="U14" s="2">
         <f>STANDARDIZE(ACG!I13,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.49069285677670971</v>
+        <v>0.24484203566847526</v>
       </c>
       <c r="V14" s="2">
         <f>STANDARDIZE(ACG!J13,ACG!$J$38,ACG!$J$37)</f>
         <v>-0.1081168615319652</v>
       </c>
       <c r="X14" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q14&lt;-1.6,U14&lt;-1.6,V14&lt;-1.6),OR(P14&gt;1.6,R14&gt;1.6,S14&gt;1.6,T14&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y14" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="AC14" s="51"/>
@@ -13856,22 +13794,22 @@
       </c>
       <c r="H15" s="2">
         <f>STANDARDIZE(ACG!H14,ACG!$H$36,ACG!$H$37)</f>
-        <v>-3.6482123266181348</v>
+        <v>7.2362175164663434</v>
       </c>
       <c r="I15" s="2">
         <f>STANDARDIZE(ACG!I14,ACG!$I$36,ACG!$I$37)</f>
-        <v>7.2362175164663434</v>
+        <v>-3.6482123266181348</v>
       </c>
       <c r="J15" s="2">
         <f>STANDARDIZE(ACG!J14,ACG!$J$36,ACG!$J$37)</f>
         <v>-9.80079349787251</v>
       </c>
       <c r="L15" t="str">
+        <f>IF(OR(OR(E15&lt;-1.6,I15&lt;-1.6,J15&lt;-1.6),OR(D15&gt;1.6,F15&gt;1.6,G15&gt;1.6,H15&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M15" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N15" s="52"/>
@@ -13897,22 +13835,22 @@
       </c>
       <c r="T15" s="2">
         <f>STANDARDIZE(ACG!H14,ACG!$H$38,ACG!$H$37)</f>
-        <v>-3.28457900679784</v>
+        <v>7.4445116270980902</v>
       </c>
       <c r="U15" s="2">
         <f>STANDARDIZE(ACG!I14,ACG!$I$38,ACG!$I$37)</f>
-        <v>7.4445116270980902</v>
+        <v>-3.28457900679784</v>
       </c>
       <c r="V15" s="2">
         <f>STANDARDIZE(ACG!J14,ACG!$J$38,ACG!$J$37)</f>
         <v>-9.4399534725095791</v>
       </c>
       <c r="X15" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q15&lt;-1.6,U15&lt;-1.6,V15&lt;-1.6),OR(P15&gt;1.6,R15&gt;1.6,S15&gt;1.6,T15&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y15" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC15" s="51"/>
@@ -13949,22 +13887,22 @@
       </c>
       <c r="H16" s="2">
         <f>STANDARDIZE(ACG!H15,ACG!$H$36,ACG!$H$37)</f>
-        <v>1.1839531320464802</v>
+        <v>-0.72702655922426873</v>
       </c>
       <c r="I16" s="2">
         <f>STANDARDIZE(ACG!I15,ACG!$I$36,ACG!$I$37)</f>
-        <v>-0.72702655922426873</v>
+        <v>1.1839531320464802</v>
       </c>
       <c r="J16" s="2">
         <f>STANDARDIZE(ACG!J15,ACG!$J$36,ACG!$J$37)</f>
         <v>1.1892854768515941</v>
       </c>
       <c r="L16" t="str">
+        <f>IF(OR(OR(E16&lt;-1.6,I16&lt;-1.6,J16&lt;-1.6),OR(D16&gt;1.6,F16&gt;1.6,G16&gt;1.6,H16&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M16" t="str">
-        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="N16" s="52"/>
@@ -13990,22 +13928,22 @@
       </c>
       <c r="T16" s="2">
         <f>STANDARDIZE(ACG!H15,ACG!$H$38,ACG!$H$37)</f>
-        <v>1.547586451866775</v>
+        <v>-0.51873244859252243</v>
       </c>
       <c r="U16" s="2">
         <f>STANDARDIZE(ACG!I15,ACG!$I$38,ACG!$I$37)</f>
-        <v>-0.51873244859252243</v>
+        <v>1.547586451866775</v>
       </c>
       <c r="V16" s="2">
         <f>STANDARDIZE(ACG!J15,ACG!$J$38,ACG!$J$37)</f>
         <v>1.5501255022145251</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q16&lt;-1.6,U16&lt;-1.6,V16&lt;-1.6),OR(P16&gt;1.6,R16&gt;1.6,S16&gt;1.6,T16&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="AC16" s="51"/>
@@ -14042,22 +13980,22 @@
       </c>
       <c r="H17" s="2">
         <f>STANDARDIZE(ACG!H16,ACG!$H$36,ACG!$H$37)</f>
-        <v>-1.1720740036312962</v>
+        <v>0.52073527657936591</v>
       </c>
       <c r="I17" s="2">
         <f>STANDARDIZE(ACG!I16,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.52073527657936591</v>
+        <v>-1.1720740036312962</v>
       </c>
       <c r="J17" s="2">
         <f>STANDARDIZE(ACG!J16,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.98926928301747052</v>
       </c>
       <c r="L17" t="str">
+        <f>IF(OR(OR(E17&lt;-1.6,I17&lt;-1.6,J17&lt;-1.6),OR(D17&gt;1.6,F17&gt;1.6,G17&gt;1.6,H17&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M17" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N17" s="52"/>
@@ -14083,22 +14021,22 @@
       </c>
       <c r="T17" s="2">
         <f>STANDARDIZE(ACG!H16,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.80844068381100154</v>
+        <v>0.72902938721111232</v>
       </c>
       <c r="U17" s="2">
         <f>STANDARDIZE(ACG!I16,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.72902938721111232</v>
+        <v>-0.80844068381100154</v>
       </c>
       <c r="V17" s="2">
         <f>STANDARDIZE(ACG!J16,ACG!$J$38,ACG!$J$37)</f>
         <v>-0.62842925765453961</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q17&lt;-1.6,U17&lt;-1.6,V17&lt;-1.6),OR(P17&gt;1.6,R17&gt;1.6,S17&gt;1.6,T17&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y17" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC17" s="51"/>
@@ -14135,22 +14073,22 @@
       </c>
       <c r="H18" s="2">
         <f>STANDARDIZE(ACG!H17,ACG!$H$36,ACG!$H$37)</f>
-        <v>-1.4723519719039539</v>
+        <v>2.2451701732518048</v>
       </c>
       <c r="I18" s="2">
         <f>STANDARDIZE(ACG!I17,ACG!$I$36,ACG!$I$37)</f>
-        <v>2.2451701732518048</v>
+        <v>-1.4723519719039539</v>
       </c>
       <c r="J18" s="2">
         <f>STANDARDIZE(ACG!J17,ACG!$J$36,ACG!$J$37)</f>
         <v>-1.2676702014622772</v>
       </c>
       <c r="L18" t="str">
+        <f>IF(OR(OR(E18&lt;-1.6,I18&lt;-1.6,J18&lt;-1.6),OR(D18&gt;1.6,F18&gt;1.6,G18&gt;1.6,H18&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M18" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N18" s="52"/>
@@ -14176,22 +14114,22 @@
       </c>
       <c r="T18" s="2">
         <f>STANDARDIZE(ACG!H17,ACG!$H$38,ACG!$H$37)</f>
-        <v>-1.1087186520836594</v>
+        <v>2.4534642838835512</v>
       </c>
       <c r="U18" s="2">
         <f>STANDARDIZE(ACG!I17,ACG!$I$38,ACG!$I$37)</f>
-        <v>2.4534642838835512</v>
+        <v>-1.1087186520836594</v>
       </c>
       <c r="V18" s="2">
         <f>STANDARDIZE(ACG!J17,ACG!$J$38,ACG!$J$37)</f>
         <v>-0.90683017609934635</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q18&lt;-1.6,U18&lt;-1.6,V18&lt;-1.6),OR(P18&gt;1.6,R18&gt;1.6,S18&gt;1.6,T18&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y18" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC18" s="51"/>
@@ -14228,22 +14166,22 @@
       </c>
       <c r="H19" s="2">
         <f>STANDARDIZE(ACG!H18,ACG!$H$36,ACG!$H$37)</f>
-        <v>-2.317749944117744</v>
+        <v>3.9766149678781959</v>
       </c>
       <c r="I19" s="2">
         <f>STANDARDIZE(ACG!I18,ACG!$I$36,ACG!$I$37)</f>
-        <v>3.9766149678781959</v>
+        <v>-2.317749944117744</v>
       </c>
       <c r="J19" s="2">
         <f>STANDARDIZE(ACG!J18,ACG!$J$36,ACG!$J$37)</f>
         <v>-3.296212815955748</v>
       </c>
       <c r="L19" t="str">
+        <f>IF(OR(OR(E19&lt;-1.6,I19&lt;-1.6,J19&lt;-1.6),OR(D19&gt;1.6,F19&gt;1.6,G19&gt;1.6,H19&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M19" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N19" s="52"/>
@@ -14269,22 +14207,22 @@
       </c>
       <c r="T19" s="2">
         <f>STANDARDIZE(ACG!H18,ACG!$H$38,ACG!$H$37)</f>
-        <v>-1.9541166242974493</v>
+        <v>4.1849090785099419</v>
       </c>
       <c r="U19" s="2">
         <f>STANDARDIZE(ACG!I18,ACG!$I$38,ACG!$I$37)</f>
-        <v>4.1849090785099419</v>
+        <v>-1.9541166242974493</v>
       </c>
       <c r="V19" s="2">
         <f>STANDARDIZE(ACG!J18,ACG!$J$38,ACG!$J$37)</f>
         <v>-2.9353727905928171</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q19&lt;-1.6,U19&lt;-1.6,V19&lt;-1.6),OR(P19&gt;1.6,R19&gt;1.6,S19&gt;1.6,T19&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y19" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC19" s="51"/>
@@ -14321,22 +14259,22 @@
       </c>
       <c r="H20" s="2">
         <f>STANDARDIZE(ACG!H19,ACG!$H$36,ACG!$H$37)</f>
-        <v>1.0315043173849763</v>
+        <v>-0.81114533467170424</v>
       </c>
       <c r="I20" s="2">
         <f>STANDARDIZE(ACG!I19,ACG!$I$36,ACG!$I$37)</f>
-        <v>-0.81114533467170424</v>
+        <v>1.0315043173849763</v>
       </c>
       <c r="J20" s="2">
         <f>STANDARDIZE(ACG!J19,ACG!$J$36,ACG!$J$37)</f>
         <v>0.97980905763341686</v>
       </c>
       <c r="L20" t="str">
+        <f>IF(OR(OR(E20&lt;-1.6,I20&lt;-1.6,J20&lt;-1.6),OR(D20&gt;1.6,F20&gt;1.6,G20&gt;1.6,H20&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M20" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M20" t="str">
-        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="N20" s="52"/>
@@ -14362,22 +14300,22 @@
       </c>
       <c r="T20" s="2">
         <f>STANDARDIZE(ACG!H19,ACG!$H$38,ACG!$H$37)</f>
-        <v>1.3951376372052711</v>
+        <v>-0.60285122403995783</v>
       </c>
       <c r="U20" s="2">
         <f>STANDARDIZE(ACG!I19,ACG!$I$38,ACG!$I$37)</f>
-        <v>-0.60285122403995783</v>
+        <v>1.3951376372052711</v>
       </c>
       <c r="V20" s="2">
         <f>STANDARDIZE(ACG!J19,ACG!$J$38,ACG!$J$37)</f>
         <v>1.3406490829963478</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q20&lt;-1.6,U20&lt;-1.6,V20&lt;-1.6),OR(P20&gt;1.6,R20&gt;1.6,S20&gt;1.6,T20&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y20" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="AC20" s="51"/>
@@ -14414,22 +14352,22 @@
       </c>
       <c r="H21" s="2">
         <f>STANDARDIZE(ACG!H20,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.57151806708598041</v>
+        <v>0.1001413993421854</v>
       </c>
       <c r="I21" s="2">
         <f>STANDARDIZE(ACG!I20,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.1001413993421854</v>
+        <v>-0.57151806708598041</v>
       </c>
       <c r="J21" s="2">
         <f>STANDARDIZE(ACG!J20,ACG!$J$36,ACG!$J$37)</f>
         <v>-1.7825767545082545</v>
       </c>
       <c r="L21" t="str">
+        <f>IF(OR(OR(E21&lt;-1.6,I21&lt;-1.6,J21&lt;-1.6),OR(D21&gt;1.6,F21&gt;1.6,G21&gt;1.6,H21&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M21" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N21" s="52"/>
@@ -14455,22 +14393,22 @@
       </c>
       <c r="T21" s="2">
         <f>STANDARDIZE(ACG!H20,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.20788474726568579</v>
+        <v>0.30843550997393177</v>
       </c>
       <c r="U21" s="2">
         <f>STANDARDIZE(ACG!I20,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.30843550997393177</v>
+        <v>-0.20788474726568579</v>
       </c>
       <c r="V21" s="2">
         <f>STANDARDIZE(ACG!J20,ACG!$J$38,ACG!$J$37)</f>
         <v>-1.4217367291453236</v>
       </c>
       <c r="X21" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q21&lt;-1.6,U21&lt;-1.6,V21&lt;-1.6),OR(P21&gt;1.6,R21&gt;1.6,S21&gt;1.6,T21&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y21" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC21" s="51"/>
@@ -14507,22 +14445,22 @@
       </c>
       <c r="H22" s="2">
         <f>STANDARDIZE(ACG!H21,ACG!$H$36,ACG!$H$37)</f>
-        <v>1.2301497425499659</v>
+        <v>-1.0845313548758717</v>
       </c>
       <c r="I22" s="2">
         <f>STANDARDIZE(ACG!I21,ACG!$I$36,ACG!$I$37)</f>
-        <v>-1.0845313548758717</v>
+        <v>1.2301497425499659</v>
       </c>
       <c r="J22" s="2">
         <f>STANDARDIZE(ACG!J21,ACG!$J$36,ACG!$J$37)</f>
         <v>1.4433601014517121</v>
       </c>
       <c r="L22" t="str">
+        <f>IF(OR(OR(E22&lt;-1.6,I22&lt;-1.6,J22&lt;-1.6),OR(D22&gt;1.6,F22&gt;1.6,G22&gt;1.6,H22&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M22" t="str">
-        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="N22" s="52"/>
@@ -14548,22 +14486,22 @@
       </c>
       <c r="T22" s="2">
         <f>STANDARDIZE(ACG!H21,ACG!$H$38,ACG!$H$37)</f>
-        <v>1.5937830623702607</v>
+        <v>-0.87623724424412541</v>
       </c>
       <c r="U22" s="2">
         <f>STANDARDIZE(ACG!I21,ACG!$I$38,ACG!$I$37)</f>
-        <v>-0.87623724424412541</v>
+        <v>1.5937830623702607</v>
       </c>
       <c r="V22" s="2">
         <f>STANDARDIZE(ACG!J21,ACG!$J$38,ACG!$J$37)</f>
         <v>1.804200126814643</v>
       </c>
       <c r="X22" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q22&lt;-1.6,U22&lt;-1.6,V22&lt;-1.6),OR(P22&gt;1.6,R22&gt;1.6,S22&gt;1.6,T22&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y22" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="AC22" s="51"/>
@@ -14600,22 +14538,22 @@
       </c>
       <c r="H23" s="2">
         <f>STANDARDIZE(ACG!H22,ACG!$H$36,ACG!$H$37)</f>
-        <v>-1.5046895992563938</v>
+        <v>0.93431925586259301</v>
       </c>
       <c r="I23" s="2">
         <f>STANDARDIZE(ACG!I22,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.93431925586259301</v>
+        <v>-1.5046895992563938</v>
       </c>
       <c r="J23" s="2">
         <f>STANDARDIZE(ACG!J22,ACG!$J$36,ACG!$J$37)</f>
         <v>-1.3757870629942386</v>
       </c>
       <c r="L23" t="str">
+        <f>IF(OR(OR(E23&lt;-1.6,I23&lt;-1.6,J23&lt;-1.6),OR(D23&gt;1.6,F23&gt;1.6,G23&gt;1.6,H23&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M23" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N23" s="52"/>
@@ -14641,22 +14579,22 @@
       </c>
       <c r="T23" s="2">
         <f>STANDARDIZE(ACG!H22,ACG!$H$38,ACG!$H$37)</f>
-        <v>-1.1410562794360992</v>
+        <v>1.1426133664943394</v>
       </c>
       <c r="U23" s="2">
         <f>STANDARDIZE(ACG!I22,ACG!$I$38,ACG!$I$37)</f>
-        <v>1.1426133664943394</v>
+        <v>-1.1410562794360992</v>
       </c>
       <c r="V23" s="2">
         <f>STANDARDIZE(ACG!J22,ACG!$J$38,ACG!$J$37)</f>
         <v>-1.0149470376313077</v>
       </c>
       <c r="X23" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q23&lt;-1.6,U23&lt;-1.6,V23&lt;-1.6),OR(P23&gt;1.6,R23&gt;1.6,S23&gt;1.6,T23&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y23" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC23" s="51"/>
@@ -14693,22 +14631,22 @@
       </c>
       <c r="H24" s="2">
         <f>STANDARDIZE(ACG!H23,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.70548823754608969</v>
+        <v>0.29641854205287027</v>
       </c>
       <c r="I24" s="2">
         <f>STANDARDIZE(ACG!I23,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.29641854205287027</v>
+        <v>-0.70548823754608969</v>
       </c>
       <c r="J24" s="2">
         <f>STANDARDIZE(ACG!J23,ACG!$J$36,ACG!$J$37)</f>
         <v>-1.6366189914401019</v>
       </c>
       <c r="L24" t="str">
+        <f>IF(OR(OR(E24&lt;-1.6,I24&lt;-1.6,J24&lt;-1.6),OR(D24&gt;1.6,F24&gt;1.6,G24&gt;1.6,H24&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M24" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N24" s="52"/>
@@ -14734,22 +14672,22 @@
       </c>
       <c r="T24" s="2">
         <f>STANDARDIZE(ACG!H23,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.34185491772579502</v>
+        <v>0.50471265268461663</v>
       </c>
       <c r="U24" s="2">
         <f>STANDARDIZE(ACG!I23,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.50471265268461663</v>
+        <v>-0.34185491772579502</v>
       </c>
       <c r="V24" s="2">
         <f>STANDARDIZE(ACG!J23,ACG!$J$38,ACG!$J$37)</f>
         <v>-1.275778966077171</v>
       </c>
       <c r="X24" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q24&lt;-1.6,U24&lt;-1.6,V24&lt;-1.6),OR(P24&gt;1.6,R24&gt;1.6,S24&gt;1.6,T24&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y24" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC24" s="51"/>
@@ -14786,22 +14724,22 @@
       </c>
       <c r="H25" s="2">
         <f>STANDARDIZE(ACG!H24,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.58537705023702669</v>
+        <v>0.52774517453331882</v>
       </c>
       <c r="I25" s="2">
         <f>STANDARDIZE(ACG!I24,ACG!$I$36,ACG!$I$37)</f>
-        <v>0.52774517453331882</v>
+        <v>-0.58537705023702669</v>
       </c>
       <c r="J25" s="2">
         <f>STANDARDIZE(ACG!J24,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.38381485843847535</v>
       </c>
       <c r="L25" t="str">
+        <f>IF(OR(OR(E25&lt;-1.6,I25&lt;-1.6,J25&lt;-1.6),OR(D25&gt;1.6,F25&gt;1.6,G25&gt;1.6,H25&gt;1.6)),"y","x")</f>
+        <v>y</v>
+      </c>
+      <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>y</v>
-      </c>
-      <c r="M25" t="str">
-        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="N25" s="52"/>
@@ -14827,22 +14765,22 @@
       </c>
       <c r="T25" s="2">
         <f>STANDARDIZE(ACG!H24,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.22174373041673204</v>
+        <v>0.73603928516506523</v>
       </c>
       <c r="U25" s="2">
         <f>STANDARDIZE(ACG!I24,ACG!$I$38,ACG!$I$37)</f>
-        <v>0.73603928516506523</v>
+        <v>-0.22174373041673204</v>
       </c>
       <c r="V25" s="2">
         <f>STANDARDIZE(ACG!J24,ACG!$J$38,ACG!$J$37)</f>
         <v>-2.2974833075544432E-2</v>
       </c>
       <c r="X25" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q25&lt;-1.6,U25&lt;-1.6,V25&lt;-1.6),OR(P25&gt;1.6,R25&gt;1.6,S25&gt;1.6,T25&gt;1.6)),"y","x")</f>
         <v>y</v>
       </c>
       <c r="Y25" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TP</v>
       </c>
       <c r="AC25" s="51"/>
@@ -14879,22 +14817,22 @@
       </c>
       <c r="H26" s="2">
         <f>STANDARDIZE(ACG!H25,ACG!$H$36,ACG!$H$37)</f>
-        <v>15.056795266243268</v>
+        <v>-2.8720553331338876</v>
       </c>
       <c r="I26" s="2">
         <f>STANDARDIZE(ACG!I25,ACG!$I$36,ACG!$I$37)</f>
-        <v>-2.8720553331338876</v>
+        <v>15.056795266243268</v>
       </c>
       <c r="J26" s="2">
         <f>STANDARDIZE(ACG!J25,ACG!$J$36,ACG!$J$37)</f>
         <v>3.6975966643931515</v>
       </c>
       <c r="L26" t="str">
+        <f>IF(OR(OR(E26&lt;-1.6,I26&lt;-1.6,J26&lt;-1.6),OR(D26&gt;1.6,F26&gt;1.6,G26&gt;1.6,H26&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M26" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M26" t="str">
-        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="N26" s="52"/>
@@ -14920,22 +14858,22 @@
       </c>
       <c r="T26" s="2">
         <f>STANDARDIZE(ACG!H25,ACG!$H$38,ACG!$H$37)</f>
-        <v>15.420428586063565</v>
+        <v>-2.6637612225021412</v>
       </c>
       <c r="U26" s="2">
         <f>STANDARDIZE(ACG!I25,ACG!$I$38,ACG!$I$37)</f>
-        <v>-2.6637612225021412</v>
+        <v>15.420428586063565</v>
       </c>
       <c r="V26" s="2">
         <f>STANDARDIZE(ACG!J25,ACG!$J$38,ACG!$J$37)</f>
         <v>4.0584366897560828</v>
       </c>
       <c r="X26" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q26&lt;-1.6,U26&lt;-1.6,V26&lt;-1.6),OR(P26&gt;1.6,R26&gt;1.6,S26&gt;1.6,T26&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y26" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>FN</v>
       </c>
       <c r="AC26" s="51"/>
@@ -14972,22 +14910,22 @@
       </c>
       <c r="H27" s="2">
         <f>STANDARDIZE(ACG!H26,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.65929162704260325</v>
+        <v>-0.20829411063174638</v>
       </c>
       <c r="I27" s="2">
         <f>STANDARDIZE(ACG!I26,ACG!$I$36,ACG!$I$37)</f>
-        <v>-0.20829411063174638</v>
+        <v>-0.65929162704260325</v>
       </c>
       <c r="J27" s="2">
         <f>STANDARDIZE(ACG!J26,ACG!$J$36,ACG!$J$37)</f>
         <v>-0.36084002536293092</v>
       </c>
       <c r="L27" t="str">
+        <f>IF(OR(OR(E27&lt;-1.6,I27&lt;-1.6,J27&lt;-1.6),OR(D27&gt;1.6,F27&gt;1.6,G27&gt;1.6,H27&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M27" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M27" t="str">
-        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="N27" s="52"/>
@@ -15013,22 +14951,22 @@
       </c>
       <c r="T27" s="2">
         <f>STANDARDIZE(ACG!H26,ACG!$H$38,ACG!$H$37)</f>
-        <v>-0.29565830722230857</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <f>STANDARDIZE(ACG!I26,ACG!$I$38,ACG!$I$37)</f>
-        <v>0</v>
+        <v>-0.29565830722230857</v>
       </c>
       <c r="V27" s="2">
         <f>STANDARDIZE(ACG!J26,ACG!$J$38,ACG!$J$37)</f>
         <v>0</v>
       </c>
       <c r="X27" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q27&lt;-1.6,U27&lt;-1.6,V27&lt;-1.6),OR(P27&gt;1.6,R27&gt;1.6,S27&gt;1.6,T27&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y27" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="AC27" s="51"/>
@@ -15065,22 +15003,22 @@
       </c>
       <c r="H28" s="2">
         <f>STANDARDIZE(ACG!H27,ACG!$H$36,ACG!$H$37)</f>
-        <v>-0.36363331982029468</v>
+        <v>1.2567745617444313</v>
       </c>
       <c r="I28" s="2">
         <f>STANDARDIZE(ACG!I27,ACG!$I$36,ACG!$I$37)</f>
-        <v>1.2567745617444313</v>
+        <v>-0.36363331982029468</v>
       </c>
       <c r="J28" s="2">
         <f>STANDARDIZE(ACG!J27,ACG!$J$36,ACG!$J$37)</f>
         <v>0.19866473306497925</v>
       </c>
       <c r="L28" t="str">
+        <f>IF(OR(OR(E28&lt;-1.6,I28&lt;-1.6,J28&lt;-1.6),OR(D28&gt;1.6,F28&gt;1.6,G28&gt;1.6,H28&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M28" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M28" t="str">
-        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="N28" s="52"/>
@@ -15106,22 +15044,22 @@
       </c>
       <c r="T28" s="2">
         <f>STANDARDIZE(ACG!H27,ACG!$H$38,ACG!$H$37)</f>
-        <v>0</v>
+        <v>1.4650686723761777</v>
       </c>
       <c r="U28" s="2">
         <f>STANDARDIZE(ACG!I27,ACG!$I$38,ACG!$I$37)</f>
-        <v>1.4650686723761777</v>
+        <v>0</v>
       </c>
       <c r="V28" s="2">
         <f>STANDARDIZE(ACG!J27,ACG!$J$38,ACG!$J$37)</f>
         <v>0.55950475842791014</v>
       </c>
       <c r="X28" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q28&lt;-1.6,U28&lt;-1.6,V28&lt;-1.6),OR(P28&gt;1.6,R28&gt;1.6,S28&gt;1.6,T28&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y28" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="AC28" s="51"/>
@@ -15158,22 +15096,22 @@
       </c>
       <c r="H29" s="2">
         <f>STANDARDIZE(ACG!H28,ACG!$H$36,ACG!$H$37)</f>
-        <v>0.83285889221998755</v>
+        <v>-0.90928390602704667</v>
       </c>
       <c r="I29" s="2">
         <f>STANDARDIZE(ACG!I28,ACG!$I$36,ACG!$I$37)</f>
-        <v>-0.90928390602704667</v>
+        <v>0.83285889221998755</v>
       </c>
       <c r="J29" s="2">
         <f>STANDARDIZE(ACG!J28,ACG!$J$36,ACG!$J$37)</f>
         <v>1.1784737906984</v>
       </c>
       <c r="L29" t="str">
+        <f>IF(OR(OR(E29&lt;-1.6,I29&lt;-1.6,J29&lt;-1.6),OR(D29&gt;1.6,F29&gt;1.6,G29&gt;1.6,H29&gt;1.6)),"y","x")</f>
+        <v>x</v>
+      </c>
+      <c r="M29" t="str">
         <f t="shared" si="0"/>
-        <v>x</v>
-      </c>
-      <c r="M29" t="str">
-        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="N29" s="52"/>
@@ -15199,22 +15137,22 @@
       </c>
       <c r="T29" s="2">
         <f>STANDARDIZE(ACG!H28,ACG!$H$38,ACG!$H$37)</f>
-        <v>1.1964922120402821</v>
+        <v>-0.70098979539530026</v>
       </c>
       <c r="U29" s="2">
         <f>STANDARDIZE(ACG!I28,ACG!$I$38,ACG!$I$37)</f>
-        <v>-0.70098979539530026</v>
+        <v>1.1964922120402821</v>
       </c>
       <c r="V29" s="2">
         <f>STANDARDIZE(ACG!J28,ACG!$J$38,ACG!$J$37)</f>
         <v>1.5393138160613309</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(OR(Q29&lt;-1.6,U29&lt;-1.6,V29&lt;-1.6),OR(P29&gt;1.6,R29&gt;1.6,S29&gt;1.6,T29&gt;1.6)),"y","x")</f>
         <v>x</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>TN</v>
       </c>
       <c r="AC29" s="51"/>
@@ -15225,10 +15163,14 @@
       <c r="AH29" s="21"/>
       <c r="AI29" s="21"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="52"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="52"/>
+      <c r="B30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="D30" s="52"/>
       <c r="E30" s="52"/>
       <c r="F30" s="52"/>
@@ -15239,8 +15181,12 @@
       <c r="K30" s="52"/>
       <c r="L30" s="52"/>
       <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
+      <c r="N30" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="O30" s="28" t="s">
+        <v>180</v>
+      </c>
       <c r="P30" s="52"/>
       <c r="T30" s="2"/>
       <c r="AC30" s="51"/>
@@ -15313,7 +15259,7 @@
         <v>200</v>
       </c>
       <c r="P32">
-        <f t="shared" ref="P32:P34" si="4">COUNTIF($Y$3:$Y$29,O32)</f>
+        <f t="shared" ref="P32:P34" si="2">COUNTIF($Y$3:$Y$29,O32)</f>
         <v>6</v>
       </c>
       <c r="R32" s="3" t="s">
@@ -15353,7 +15299,7 @@
         <v>201</v>
       </c>
       <c r="P33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="R33" s="3" t="s">
@@ -15393,7 +15339,7 @@
         <v>198</v>
       </c>
       <c r="P34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="R34" s="3" t="s">
@@ -15942,12 +15888,12 @@
       <formula>1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q29 T3:T29 V3:V29">
+  <conditionalFormatting sqref="Q3:Q29 I3:J29 U3:V29">
     <cfRule type="cellIs" dxfId="8" priority="11" operator="lessThan">
       <formula>-1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U3:U29">
+  <conditionalFormatting sqref="T3:T29">
     <cfRule type="cellIs" dxfId="7" priority="10" operator="greaterThan">
       <formula>1.6</formula>
     </cfRule>
@@ -15957,12 +15903,12 @@
       <formula>NOT(ISERROR(SEARCH("y",A3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D29 F3:G29 I3:I29">
+  <conditionalFormatting sqref="D3:D29 F3:H29">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>1.6</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E29 H3:H29 J3:J29">
+  <conditionalFormatting sqref="E3:E29">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>-1.6</formula>
     </cfRule>
@@ -15977,12 +15923,12 @@
       <formula>NOT(ISERROR(SEARCH("y",X3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
+  <conditionalFormatting sqref="C30">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>46</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1">
+  <conditionalFormatting sqref="O30">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>46</formula>
     </cfRule>
@@ -15997,7 +15943,7 @@
   <dimension ref="A1:V58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16029,10 +15975,10 @@
         <v>63</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -16079,10 +16025,10 @@
         <v>3.5</v>
       </c>
       <c r="H2" s="30">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="I2" s="30">
         <v>3.9699999999999998</v>
-      </c>
-      <c r="I2" s="30">
-        <v>3.8250000000000002</v>
       </c>
       <c r="J2" s="30">
         <v>77.19</v>
@@ -16111,10 +16057,10 @@
         <v>4</v>
       </c>
       <c r="H3" s="30">
+        <v>3.76</v>
+      </c>
+      <c r="I3" s="30">
         <v>3.38</v>
-      </c>
-      <c r="I3" s="30">
-        <v>3.76</v>
       </c>
       <c r="J3" s="30">
         <v>75.78</v>
@@ -16164,10 +16110,10 @@
         <v>4</v>
       </c>
       <c r="H4" s="30">
+        <v>2.5350000000000001</v>
+      </c>
+      <c r="I4" s="30">
         <v>5.8599999999999994</v>
-      </c>
-      <c r="I4" s="30">
-        <v>2.5350000000000001</v>
       </c>
       <c r="J4" s="30">
         <v>74.134999999999991</v>
@@ -16223,10 +16169,10 @@
         <v>3</v>
       </c>
       <c r="H5" s="30">
+        <v>2.375</v>
+      </c>
+      <c r="I5" s="30">
         <v>6.11</v>
-      </c>
-      <c r="I5" s="30">
-        <v>2.375</v>
       </c>
       <c r="J5" s="30">
         <v>84.075000000000003</v>
@@ -16282,10 +16228,10 @@
         <v>5</v>
       </c>
       <c r="H6" s="30">
+        <v>3</v>
+      </c>
+      <c r="I6" s="30">
         <v>4.0650000000000004</v>
-      </c>
-      <c r="I6" s="30">
-        <v>3</v>
       </c>
       <c r="J6" s="30">
         <v>77.400000000000006</v>
@@ -16341,10 +16287,10 @@
         <v>1.5</v>
       </c>
       <c r="H7" s="30">
+        <v>4.0449999999999999</v>
+      </c>
+      <c r="I7" s="30">
         <v>4.3849999999999998</v>
-      </c>
-      <c r="I7" s="30">
-        <v>4.0449999999999999</v>
       </c>
       <c r="J7" s="30">
         <v>79.47</v>
@@ -16394,10 +16340,10 @@
         <v>2</v>
       </c>
       <c r="H8" s="30">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="30">
         <v>5.68</v>
-      </c>
-      <c r="I8" s="30">
-        <v>2.5</v>
       </c>
       <c r="J8" s="30">
         <v>83.094999999999999</v>
@@ -16470,10 +16416,10 @@
         <v>2</v>
       </c>
       <c r="H10" s="30">
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="I10" s="30">
         <v>5.2949999999999999</v>
-      </c>
-      <c r="I10" s="30">
-        <v>3.2199999999999998</v>
       </c>
       <c r="J10" s="30">
         <v>76.669999999999987</v>
@@ -16523,10 +16469,10 @@
         <v>21</v>
       </c>
       <c r="H11" s="30">
+        <v>30.53</v>
+      </c>
+      <c r="I11" s="30">
         <v>0.24</v>
-      </c>
-      <c r="I11" s="30">
-        <v>30.53</v>
       </c>
       <c r="J11" s="30">
         <v>18.41</v>
@@ -16576,10 +16522,10 @@
         <v>10.5</v>
       </c>
       <c r="H12" s="30">
+        <v>4.6349999999999998</v>
+      </c>
+      <c r="I12" s="30">
         <v>2.5499999999999998</v>
-      </c>
-      <c r="I12" s="30">
-        <v>4.6349999999999998</v>
       </c>
       <c r="J12" s="30">
         <v>67.715000000000003</v>
@@ -16629,10 +16575,10 @@
         <v>17</v>
       </c>
       <c r="H13" s="30">
+        <v>5.4649999999999999</v>
+      </c>
+      <c r="I13" s="30">
         <v>1.52</v>
-      </c>
-      <c r="I13" s="30">
-        <v>5.4649999999999999</v>
       </c>
       <c r="J13" s="30">
         <v>58.185000000000002</v>
@@ -16682,10 +16628,10 @@
         <v>9</v>
       </c>
       <c r="H14" s="30">
+        <v>4.2799999999999994</v>
+      </c>
+      <c r="I14" s="30">
         <v>2.58</v>
-      </c>
-      <c r="I14" s="30">
-        <v>4.2799999999999994</v>
       </c>
       <c r="J14" s="30">
         <v>70.525000000000006</v>
@@ -16714,10 +16660,10 @@
         <v>10.5</v>
       </c>
       <c r="H15" s="30">
+        <v>12.19</v>
+      </c>
+      <c r="I15" s="30">
         <v>0.215</v>
-      </c>
-      <c r="I15" s="30">
-        <v>12.19</v>
       </c>
       <c r="J15" s="30">
         <v>13.365</v>
@@ -16764,10 +16710,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="30">
+        <v>2.7199999999999998</v>
+      </c>
+      <c r="I16" s="30">
         <v>5.18</v>
-      </c>
-      <c r="I16" s="30">
-        <v>2.7199999999999998</v>
       </c>
       <c r="J16" s="30">
         <v>80.38</v>
@@ -16796,10 +16742,10 @@
         <v>6</v>
       </c>
       <c r="H17" s="30">
+        <v>3.2800000000000002</v>
+      </c>
+      <c r="I17" s="30">
         <v>3.48</v>
-      </c>
-      <c r="I17" s="30">
-        <v>3.2800000000000002</v>
       </c>
       <c r="J17" s="30">
         <v>63.510000000000005</v>
@@ -16848,10 +16794,10 @@
         <v>2.5</v>
       </c>
       <c r="H18" s="30">
+        <v>3.3499999999999996</v>
+      </c>
+      <c r="I18" s="30">
         <v>4.6500000000000004</v>
-      </c>
-      <c r="I18" s="30">
-        <v>3.3499999999999996</v>
       </c>
       <c r="J18" s="30">
         <v>77</v>
@@ -16907,10 +16853,10 @@
         <v>14.5</v>
       </c>
       <c r="H19" s="30">
+        <v>8.31</v>
+      </c>
+      <c r="I19" s="30">
         <v>0.83000000000000007</v>
-      </c>
-      <c r="I19" s="30">
-        <v>8.31</v>
       </c>
       <c r="J19" s="30">
         <v>42.475000000000001</v>
@@ -16966,10 +16912,10 @@
         <v>3.5</v>
       </c>
       <c r="H20" s="30">
+        <v>2.63</v>
+      </c>
+      <c r="I20" s="30">
         <v>6.0600000000000005</v>
-      </c>
-      <c r="I20" s="30">
-        <v>2.63</v>
       </c>
       <c r="J20" s="30">
         <v>83.134999999999991</v>
@@ -17025,10 +16971,10 @@
         <v>7</v>
       </c>
       <c r="H21" s="30">
+        <v>3.52</v>
+      </c>
+      <c r="I21" s="30">
         <v>3.51</v>
-      </c>
-      <c r="I21" s="30">
-        <v>3.52</v>
       </c>
       <c r="J21" s="30">
         <v>75.075000000000003</v>
@@ -17077,10 +17023,10 @@
         <v>4.5</v>
       </c>
       <c r="H22" s="30">
+        <v>4.75</v>
+      </c>
+      <c r="I22" s="30">
         <v>3.1849999999999996</v>
-      </c>
-      <c r="I22" s="30">
-        <v>4.75</v>
       </c>
       <c r="J22" s="30">
         <v>74.045000000000002</v>
@@ -17129,10 +17075,10 @@
         <v>7</v>
       </c>
       <c r="H23" s="30">
+        <v>5.9849999999999994</v>
+      </c>
+      <c r="I23" s="30">
         <v>2.27</v>
-      </c>
-      <c r="I23" s="30">
-        <v>5.9849999999999994</v>
       </c>
       <c r="J23" s="30">
         <v>66.539999999999992</v>
@@ -17181,10 +17127,10 @@
         <v>3</v>
       </c>
       <c r="H24" s="30">
+        <v>2.5700000000000003</v>
+      </c>
+      <c r="I24" s="30">
         <v>5.8949999999999996</v>
-      </c>
-      <c r="I24" s="30">
-        <v>2.5700000000000003</v>
       </c>
       <c r="J24" s="30">
         <v>82.36</v>
@@ -17233,10 +17179,10 @@
         <v>8.5</v>
       </c>
       <c r="H25" s="30">
+        <v>3.2199999999999998</v>
+      </c>
+      <c r="I25" s="30">
         <v>4.16</v>
-      </c>
-      <c r="I25" s="30">
-        <v>3.2199999999999998</v>
       </c>
       <c r="J25" s="30">
         <v>72.14</v>
@@ -17285,10 +17231,10 @@
         <v>9.5</v>
       </c>
       <c r="H26" s="30">
+        <v>3.8149999999999999</v>
+      </c>
+      <c r="I26" s="30">
         <v>3.15</v>
-      </c>
-      <c r="I26" s="30">
-        <v>3.8149999999999999</v>
       </c>
       <c r="J26" s="30">
         <v>73.64500000000001</v>
@@ -17337,10 +17283,10 @@
         <v>6</v>
       </c>
       <c r="H27" s="30">
+        <v>3.3600000000000003</v>
+      </c>
+      <c r="I27" s="30">
         <v>4.0149999999999997</v>
-      </c>
-      <c r="I27" s="30">
-        <v>3.3600000000000003</v>
       </c>
       <c r="J27" s="30">
         <v>72.680000000000007</v>
@@ -17389,10 +17335,10 @@
         <v>7</v>
       </c>
       <c r="H28" s="30">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="I28" s="30">
         <v>4.1449999999999996</v>
-      </c>
-      <c r="I28" s="30">
-        <v>3.5249999999999999</v>
       </c>
       <c r="J28" s="30">
         <v>77.314999999999998</v>
@@ -17421,10 +17367,10 @@
         <v>0.5</v>
       </c>
       <c r="H29" s="30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I29" s="30">
         <v>21.075000000000003</v>
-      </c>
-      <c r="I29" s="30">
-        <v>1.1000000000000001</v>
       </c>
       <c r="J29" s="30">
         <v>92.414999999999992</v>
@@ -17682,7 +17628,6 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
@@ -17692,7 +17637,6 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
@@ -17702,7 +17646,6 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
@@ -17712,7 +17655,6 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
@@ -17722,7 +17664,6 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
@@ -17732,7 +17673,6 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
@@ -17742,7 +17682,6 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
@@ -17752,7 +17691,6 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
@@ -17762,7 +17700,6 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
@@ -17772,7 +17709,6 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
@@ -17782,7 +17718,6 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -17792,7 +17727,6 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
@@ -17802,7 +17736,6 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
@@ -17812,7 +17745,6 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
@@ -17822,7 +17754,6 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
@@ -17832,7 +17763,6 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
@@ -17842,7 +17772,6 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
   </sheetData>
@@ -17856,7 +17785,7 @@
   <dimension ref="A1:U115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17903,10 +17832,10 @@
         <v>63</v>
       </c>
       <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
       </c>
       <c r="J1" t="s">
         <v>6</v>
@@ -17960,10 +17889,10 @@
         <v>0</v>
       </c>
       <c r="H2">
+        <v>2.76</v>
+      </c>
+      <c r="I2">
         <v>6.53</v>
-      </c>
-      <c r="I2">
-        <v>2.76</v>
       </c>
       <c r="J2">
         <v>75.349999999999994</v>
@@ -18017,10 +17946,10 @@
         <v>4</v>
       </c>
       <c r="H3">
+        <v>3.68</v>
+      </c>
+      <c r="I3">
         <v>4.0599999999999996</v>
-      </c>
-      <c r="I3">
-        <v>3.68</v>
       </c>
       <c r="J3">
         <v>77.989999999999995</v>
@@ -18058,10 +17987,10 @@
         <v>4</v>
       </c>
       <c r="H4">
+        <v>3.99</v>
+      </c>
+      <c r="I4">
         <v>3.96</v>
-      </c>
-      <c r="I4">
-        <v>3.99</v>
       </c>
       <c r="J4">
         <v>77.19</v>
@@ -18114,10 +18043,10 @@
         <v>3</v>
       </c>
       <c r="H5">
+        <v>3.66</v>
+      </c>
+      <c r="I5">
         <v>3.98</v>
-      </c>
-      <c r="I5">
-        <v>3.66</v>
       </c>
       <c r="J5">
         <v>77.19</v>
@@ -18155,10 +18084,10 @@
         <v>4</v>
       </c>
       <c r="H6">
+        <v>3.76</v>
+      </c>
+      <c r="I6">
         <v>3.38</v>
-      </c>
-      <c r="I6">
-        <v>3.76</v>
       </c>
       <c r="J6">
         <v>75.78</v>
@@ -18220,10 +18149,10 @@
         <v>21</v>
       </c>
       <c r="H8">
+        <v>30.53</v>
+      </c>
+      <c r="I8">
         <v>0.24</v>
-      </c>
-      <c r="I8">
-        <v>30.53</v>
       </c>
       <c r="J8">
         <v>18.41</v>
@@ -18284,10 +18213,10 @@
         <v>11</v>
       </c>
       <c r="H10">
+        <v>4.76</v>
+      </c>
+      <c r="I10">
         <v>2.4700000000000002</v>
-      </c>
-      <c r="I10">
-        <v>4.76</v>
       </c>
       <c r="J10">
         <v>69.819999999999993</v>
@@ -18340,10 +18269,10 @@
         <v>10</v>
       </c>
       <c r="H11">
+        <v>4.51</v>
+      </c>
+      <c r="I11">
         <v>2.63</v>
-      </c>
-      <c r="I11">
-        <v>4.51</v>
       </c>
       <c r="J11">
         <v>65.61</v>
@@ -18381,10 +18310,10 @@
         <v>15</v>
       </c>
       <c r="H12">
+        <v>5.41</v>
+      </c>
+      <c r="I12">
         <v>1.32</v>
-      </c>
-      <c r="I12">
-        <v>5.41</v>
       </c>
       <c r="J12">
         <v>55.34</v>
@@ -18437,10 +18366,10 @@
         <v>19</v>
       </c>
       <c r="H13">
+        <v>5.52</v>
+      </c>
+      <c r="I13">
         <v>1.72</v>
-      </c>
-      <c r="I13">
-        <v>5.52</v>
       </c>
       <c r="J13">
         <v>61.03</v>
@@ -18479,10 +18408,10 @@
         <v>7</v>
       </c>
       <c r="H14">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="I14">
         <v>2.72</v>
-      </c>
-      <c r="I14">
-        <v>4.5199999999999996</v>
       </c>
       <c r="J14">
         <v>71.83</v>
@@ -18535,10 +18464,10 @@
         <v>11</v>
       </c>
       <c r="H15">
+        <v>4.04</v>
+      </c>
+      <c r="I15">
         <v>2.44</v>
-      </c>
-      <c r="I15">
-        <v>4.04</v>
       </c>
       <c r="J15">
         <v>69.22</v>
@@ -18576,10 +18505,10 @@
         <v>4</v>
       </c>
       <c r="H16">
+        <v>2.41</v>
+      </c>
+      <c r="I16">
         <v>6.16</v>
-      </c>
-      <c r="I16">
-        <v>2.41</v>
       </c>
       <c r="J16">
         <v>74.69</v>
@@ -18632,10 +18561,10 @@
         <v>4</v>
       </c>
       <c r="H17">
+        <v>2.66</v>
+      </c>
+      <c r="I17">
         <v>5.56</v>
-      </c>
-      <c r="I17">
-        <v>2.66</v>
       </c>
       <c r="J17">
         <v>73.58</v>
@@ -18674,10 +18603,10 @@
         <v>10</v>
       </c>
       <c r="H18">
+        <v>12.95</v>
+      </c>
+      <c r="I18">
         <v>0.21</v>
-      </c>
-      <c r="I18">
-        <v>12.95</v>
       </c>
       <c r="J18">
         <v>12.99</v>
@@ -18730,10 +18659,10 @@
         <v>11</v>
       </c>
       <c r="H19">
+        <v>11.43</v>
+      </c>
+      <c r="I19">
         <v>0.22</v>
-      </c>
-      <c r="I19">
-        <v>11.43</v>
       </c>
       <c r="J19">
         <v>13.74</v>
@@ -18802,10 +18731,10 @@
         <v>6</v>
       </c>
       <c r="H22">
+        <v>3.28</v>
+      </c>
+      <c r="I22">
         <v>4</v>
-      </c>
-      <c r="I22">
-        <v>3.28</v>
       </c>
       <c r="J22">
         <v>76.89</v>
@@ -18858,10 +18787,10 @@
         <v>2</v>
       </c>
       <c r="H23">
+        <v>2.16</v>
+      </c>
+      <c r="I23">
         <v>6.36</v>
-      </c>
-      <c r="I23">
-        <v>2.16</v>
       </c>
       <c r="J23">
         <v>83.87</v>
@@ -18900,10 +18829,10 @@
         <v>7</v>
       </c>
       <c r="H24">
+        <v>3.56</v>
+      </c>
+      <c r="I24">
         <v>3.2</v>
-      </c>
-      <c r="I24">
-        <v>3.56</v>
       </c>
       <c r="J24">
         <v>61.54</v>
@@ -18956,10 +18885,10 @@
         <v>5</v>
       </c>
       <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
         <v>3.76</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
       </c>
       <c r="J25">
         <v>65.48</v>
@@ -18998,10 +18927,10 @@
         <v>2</v>
       </c>
       <c r="H26">
+        <v>3.44</v>
+      </c>
+      <c r="I26">
         <v>4.63</v>
-      </c>
-      <c r="I26">
-        <v>3.44</v>
       </c>
       <c r="J26">
         <v>79.72</v>
@@ -19054,10 +18983,10 @@
         <v>3</v>
       </c>
       <c r="H27">
+        <v>3.26</v>
+      </c>
+      <c r="I27">
         <v>4.67</v>
-      </c>
-      <c r="I27">
-        <v>3.26</v>
       </c>
       <c r="J27">
         <v>74.28</v>
@@ -19095,10 +19024,10 @@
         <v>15</v>
       </c>
       <c r="H28">
+        <v>8.68</v>
+      </c>
+      <c r="I28">
         <v>0.79</v>
-      </c>
-      <c r="I28">
-        <v>8.68</v>
       </c>
       <c r="J28">
         <v>41.34</v>
@@ -19151,10 +19080,10 @@
         <v>14</v>
       </c>
       <c r="H29">
+        <v>7.94</v>
+      </c>
+      <c r="I29">
         <v>0.87</v>
-      </c>
-      <c r="I29">
-        <v>7.94</v>
       </c>
       <c r="J29">
         <v>43.61</v>
@@ -19192,10 +19121,10 @@
         <v>3</v>
       </c>
       <c r="H30">
+        <v>2.41</v>
+      </c>
+      <c r="I30">
         <v>6.74</v>
-      </c>
-      <c r="I30">
-        <v>2.41</v>
       </c>
       <c r="J30">
         <v>84.47</v>
@@ -19248,10 +19177,10 @@
         <v>4</v>
       </c>
       <c r="H31">
+        <v>2.85</v>
+      </c>
+      <c r="I31">
         <v>5.38</v>
-      </c>
-      <c r="I31">
-        <v>2.85</v>
       </c>
       <c r="J31">
         <v>81.8</v>
@@ -19289,10 +19218,10 @@
         <v>8</v>
       </c>
       <c r="H32">
+        <v>3.27</v>
+      </c>
+      <c r="I32">
         <v>3.85</v>
-      </c>
-      <c r="I32">
-        <v>3.27</v>
       </c>
       <c r="J32">
         <v>76.7</v>
@@ -19345,10 +19274,10 @@
         <v>6</v>
       </c>
       <c r="H33">
+        <v>3.77</v>
+      </c>
+      <c r="I33">
         <v>3.17</v>
-      </c>
-      <c r="I33">
-        <v>3.77</v>
       </c>
       <c r="J33">
         <v>73.45</v>
@@ -19386,10 +19315,10 @@
         <v>4</v>
       </c>
       <c r="H34">
+        <v>5.05</v>
+      </c>
+      <c r="I34">
         <v>3.03</v>
-      </c>
-      <c r="I34">
-        <v>5.05</v>
       </c>
       <c r="J34">
         <v>72.290000000000006</v>
@@ -19442,10 +19371,10 @@
         <v>5</v>
       </c>
       <c r="H35">
+        <v>4.45</v>
+      </c>
+      <c r="I35">
         <v>3.34</v>
-      </c>
-      <c r="I35">
-        <v>4.45</v>
       </c>
       <c r="J35">
         <v>75.8</v>
@@ -19483,10 +19412,10 @@
         <v>6</v>
       </c>
       <c r="H36">
+        <v>6.55</v>
+      </c>
+      <c r="I36">
         <v>2.29</v>
-      </c>
-      <c r="I36">
-        <v>6.55</v>
       </c>
       <c r="J36">
         <v>66.7</v>
@@ -19539,10 +19468,10 @@
         <v>8</v>
       </c>
       <c r="H37">
+        <v>5.42</v>
+      </c>
+      <c r="I37">
         <v>2.25</v>
-      </c>
-      <c r="I37">
-        <v>5.42</v>
       </c>
       <c r="J37">
         <v>66.38</v>
@@ -19580,10 +19509,10 @@
         <v>4</v>
       </c>
       <c r="H38">
+        <v>2.85</v>
+      </c>
+      <c r="I38">
         <v>4.9000000000000004</v>
-      </c>
-      <c r="I38">
-        <v>2.85</v>
       </c>
       <c r="J38">
         <v>80.3</v>
@@ -19636,10 +19565,10 @@
         <v>2</v>
       </c>
       <c r="H39">
+        <v>2.29</v>
+      </c>
+      <c r="I39">
         <v>6.89</v>
-      </c>
-      <c r="I39">
-        <v>2.29</v>
       </c>
       <c r="J39">
         <v>84.42</v>
@@ -19677,10 +19606,10 @@
         <v>11</v>
       </c>
       <c r="H40">
+        <v>3.35</v>
+      </c>
+      <c r="I40">
         <v>3.73</v>
-      </c>
-      <c r="I40">
-        <v>3.35</v>
       </c>
       <c r="J40">
         <v>76.239999999999995</v>
@@ -19733,10 +19662,10 @@
         <v>6</v>
       </c>
       <c r="H41">
+        <v>3.09</v>
+      </c>
+      <c r="I41">
         <v>4.59</v>
-      </c>
-      <c r="I41">
-        <v>3.09</v>
       </c>
       <c r="J41">
         <v>68.040000000000006</v>
@@ -19774,10 +19703,10 @@
         <v>3</v>
       </c>
       <c r="H42">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I42">
         <v>6.99</v>
-      </c>
-      <c r="I42">
-        <v>2.0699999999999998</v>
       </c>
       <c r="J42">
         <v>86.04</v>
@@ -19830,10 +19759,10 @@
         <v>3</v>
       </c>
       <c r="H43">
+        <v>2.68</v>
+      </c>
+      <c r="I43">
         <v>5.23</v>
-      </c>
-      <c r="I43">
-        <v>2.68</v>
       </c>
       <c r="J43">
         <v>82.11</v>
@@ -19871,10 +19800,10 @@
         <v>11</v>
       </c>
       <c r="H44">
+        <v>4.3</v>
+      </c>
+      <c r="I44">
         <v>2.61</v>
-      </c>
-      <c r="I44">
-        <v>4.3</v>
       </c>
       <c r="J44">
         <v>70.28</v>
@@ -19927,10 +19856,10 @@
         <v>8</v>
       </c>
       <c r="H45">
+        <v>3.33</v>
+      </c>
+      <c r="I45">
         <v>3.69</v>
-      </c>
-      <c r="I45">
-        <v>3.33</v>
       </c>
       <c r="J45">
         <v>77.010000000000005</v>
@@ -19968,10 +19897,10 @@
         <v>6</v>
       </c>
       <c r="H46">
+        <v>3.52</v>
+      </c>
+      <c r="I46">
         <v>3.76</v>
-      </c>
-      <c r="I46">
-        <v>3.52</v>
       </c>
       <c r="J46">
         <v>71.010000000000005</v>
@@ -20024,10 +19953,10 @@
         <v>6</v>
       </c>
       <c r="H47">
+        <v>3.2</v>
+      </c>
+      <c r="I47">
         <v>4.2699999999999996</v>
-      </c>
-      <c r="I47">
-        <v>3.2</v>
       </c>
       <c r="J47">
         <v>74.349999999999994</v>
@@ -20065,10 +19994,10 @@
         <v>5</v>
       </c>
       <c r="H48">
+        <v>2.59</v>
+      </c>
+      <c r="I48">
         <v>5.39</v>
-      </c>
-      <c r="I48">
-        <v>2.59</v>
       </c>
       <c r="J48">
         <v>82.62</v>
@@ -20121,10 +20050,10 @@
         <v>9</v>
       </c>
       <c r="H49">
+        <v>4.46</v>
+      </c>
+      <c r="I49">
         <v>2.9</v>
-      </c>
-      <c r="I49">
-        <v>4.46</v>
       </c>
       <c r="J49">
         <v>72.010000000000005</v>
@@ -20162,10 +20091,10 @@
         <v>1</v>
       </c>
       <c r="H50">
+        <v>1.37</v>
+      </c>
+      <c r="I50">
         <v>14.8</v>
-      </c>
-      <c r="I50">
-        <v>1.37</v>
       </c>
       <c r="J50">
         <v>90.07</v>
@@ -20218,10 +20147,10 @@
         <v>0</v>
       </c>
       <c r="H51">
+        <v>0.83</v>
+      </c>
+      <c r="I51">
         <v>27.35</v>
-      </c>
-      <c r="I51">
-        <v>0.83</v>
       </c>
       <c r="J51">
         <v>94.76</v>
@@ -20259,10 +20188,10 @@
         <v>8</v>
       </c>
       <c r="H52">
+        <v>2.79</v>
+      </c>
+      <c r="I52">
         <v>3.64</v>
-      </c>
-      <c r="I52">
-        <v>2.79</v>
       </c>
       <c r="J52">
         <v>75.77</v>
@@ -20315,10 +20244,10 @@
         <v>2</v>
       </c>
       <c r="H53">
+        <v>3.21</v>
+      </c>
+      <c r="I53">
         <v>4.49</v>
-      </c>
-      <c r="I53">
-        <v>3.21</v>
       </c>
       <c r="J53">
         <v>79.03</v>
@@ -20356,10 +20285,10 @@
         <v>2</v>
       </c>
       <c r="H54">
+        <v>3.22</v>
+      </c>
+      <c r="I54">
         <v>5.18</v>
-      </c>
-      <c r="I54">
-        <v>3.22</v>
       </c>
       <c r="J54">
         <v>82.23</v>
@@ -20412,10 +20341,10 @@
         <v>1</v>
       </c>
       <c r="H55">
+        <v>4.87</v>
+      </c>
+      <c r="I55">
         <v>3.59</v>
-      </c>
-      <c r="I55">
-        <v>4.87</v>
       </c>
       <c r="J55">
         <v>76.709999999999994</v>
@@ -20453,10 +20382,10 @@
         <v>2</v>
       </c>
       <c r="H56">
+        <v>2.6</v>
+      </c>
+      <c r="I56">
         <v>5.49</v>
-      </c>
-      <c r="I56">
-        <v>2.6</v>
       </c>
       <c r="J56">
         <v>82.68</v>
@@ -20509,10 +20438,10 @@
         <v>2</v>
       </c>
       <c r="H57">
+        <v>2.4</v>
+      </c>
+      <c r="I57">
         <v>5.87</v>
-      </c>
-      <c r="I57">
-        <v>2.4</v>
       </c>
       <c r="J57">
         <v>83.51</v>
